--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPI\WinAPIProj\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B832BBFE-0C5A-428A-92E3-4988E4192DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB1EC2-5B62-4EC6-97DA-F6FBAECE95DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3427" yWindow="10605" windowWidth="19395" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3427" yWindow="10605" windowWidth="19395" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -216,14 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>85.0, 154.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>85.0, 0.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>104, 184</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -304,7 +296,218 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113</t>
+    <t>84.0, 154.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84.0, 0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_back_noncombat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_back_melee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_back_ranged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\idle2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\move2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\damaged2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\rolling2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\landing2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\win2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\dash2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\fist2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\uppercut2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\sword2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\lance2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\axe2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\gun2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Player\bow2.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerIdle2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerMove2</t>
+  </si>
+  <si>
+    <t>PlayerDamaged2</t>
+  </si>
+  <si>
+    <t>PlayerRolling2</t>
+  </si>
+  <si>
+    <t>PlayerLanding2</t>
+  </si>
+  <si>
+    <t>PlayerWin2</t>
+  </si>
+  <si>
+    <t>PlayerDash2</t>
+  </si>
+  <si>
+    <t>PlayerFist2</t>
+  </si>
+  <si>
+    <t>PlayerUppercut2</t>
+  </si>
+  <si>
+    <t>PlayerSword2</t>
+  </si>
+  <si>
+    <t>PlayerLance2</t>
+  </si>
+  <si>
+    <t>PlayerAxe2</t>
+  </si>
+  <si>
+    <t>PlayerGun2</t>
+  </si>
+  <si>
+    <t>PlayerBow2</t>
+  </si>
+  <si>
+    <t>90, 166</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122, 145</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104, 138</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>144, 160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115, 161</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99, 153</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85, 166</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117, 159</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84, 164</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93, 169</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107, 116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103, 154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93, 157</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76, 173</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -855,10 +1058,10 @@
         <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -887,10 +1090,10 @@
         <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -919,10 +1122,10 @@
         <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -951,10 +1154,10 @@
         <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -983,10 +1186,10 @@
         <v>20</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1015,10 +1218,10 @@
         <v>20</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -1047,10 +1250,10 @@
         <v>20</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1079,10 +1282,10 @@
         <v>20</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1111,10 +1314,10 @@
         <v>20</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1143,10 +1346,10 @@
         <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1163,7 +1366,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="3">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F15" s="3">
         <v>6</v>
@@ -1175,10 +1378,10 @@
         <v>20</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -1195,7 +1398,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="3">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
@@ -1207,10 +1410,458 @@
         <v>20</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>114</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>115</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>121</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>125</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>126</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>127</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1223,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45866B4A-DFC8-4BA7-8BCE-7B88B71E2954}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1259,7 +1910,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPI\WinAPIProj\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB1EC2-5B62-4EC6-97DA-F6FBAECE95DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954947C-D453-4D4E-B57A-7F134DA02E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3427" yWindow="10605" windowWidth="19395" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3427" yWindow="10702" windowWidth="19395" windowHeight="11596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
     <sheet name="200" sheetId="3" r:id="rId2"/>
+    <sheet name="300" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +66,6 @@
     <t>vector&lt;float&gt;</t>
   </si>
   <si>
-    <t>-10.0, -20.0</t>
-  </si>
-  <si>
     <t>0.0, 0.0</t>
   </si>
   <si>
@@ -508,6 +506,88 @@
   </si>
   <si>
     <t>100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Att</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Item\spear1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Item\axe1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Item\sword1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Item\bow1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Item\equipment1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Item\equipment2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\Item\equipment3</t>
+  </si>
+  <si>
+    <t>texture\Item\equipment4</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글테스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -888,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -973,13 +1053,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3">
         <v>0.12</v>
@@ -988,16 +1068,16 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -1005,13 +1085,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>0.12</v>
@@ -1020,16 +1100,16 @@
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -1037,13 +1117,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3">
         <v>0.1</v>
@@ -1052,16 +1132,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -1069,13 +1149,13 @@
         <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1084,16 +1164,16 @@
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -1101,13 +1181,13 @@
         <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3">
         <v>0.12</v>
@@ -1116,16 +1196,16 @@
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -1133,13 +1213,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1148,16 +1228,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1165,13 +1245,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1180,16 +1260,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1197,13 +1277,13 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3">
         <v>0.12</v>
@@ -1212,16 +1292,16 @@
         <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -1229,13 +1309,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>0.12</v>
@@ -1244,16 +1324,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1261,13 +1341,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>0.12</v>
@@ -1276,16 +1356,16 @@
         <v>6</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1293,13 +1373,13 @@
         <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
         <v>0.12</v>
@@ -1308,16 +1388,16 @@
         <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1325,13 +1405,13 @@
         <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
         <v>0.12</v>
@@ -1340,16 +1420,16 @@
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1357,13 +1437,13 @@
         <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>0.15</v>
@@ -1372,16 +1452,16 @@
         <v>6</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -1389,13 +1469,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>0.15</v>
@@ -1404,16 +1484,16 @@
         <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -1421,13 +1501,13 @@
         <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3">
         <v>0.12</v>
@@ -1436,16 +1516,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1453,13 +1533,13 @@
         <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3">
         <v>0.12</v>
@@ -1468,16 +1548,16 @@
         <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -1485,13 +1565,13 @@
         <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3">
         <v>0.1</v>
@@ -1500,16 +1580,16 @@
         <v>4</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -1517,13 +1597,13 @@
         <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1532,16 +1612,16 @@
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -1549,13 +1629,13 @@
         <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3">
         <v>0.12</v>
@@ -1564,16 +1644,16 @@
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -1581,13 +1661,13 @@
         <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1596,16 +1676,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -1613,13 +1693,13 @@
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1628,16 +1708,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -1645,13 +1725,13 @@
         <v>121</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="3">
         <v>0.12</v>
@@ -1660,16 +1740,16 @@
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -1677,13 +1757,13 @@
         <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="3">
         <v>0.12</v>
@@ -1692,16 +1772,16 @@
         <v>5</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
@@ -1709,13 +1789,13 @@
         <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="3">
         <v>0.12</v>
@@ -1724,16 +1804,16 @@
         <v>5</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
@@ -1741,13 +1821,13 @@
         <v>124</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3">
         <v>0.12</v>
@@ -1756,16 +1836,16 @@
         <v>6</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -1773,13 +1853,13 @@
         <v>125</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3">
         <v>0.12</v>
@@ -1788,16 +1868,16 @@
         <v>5</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -1805,13 +1885,13 @@
         <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="3">
         <v>0.15</v>
@@ -1820,16 +1900,16 @@
         <v>6</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -1837,13 +1917,13 @@
         <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3">
         <v>0.15</v>
@@ -1852,16 +1932,16 @@
         <v>5</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1874,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45866B4A-DFC8-4BA7-8BCE-7B88B71E2954}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1888,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1899,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1907,10 +1987,236 @@
         <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AFBA6-2E1C-4899-94D5-65052430D71E}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="2" max="2" width="16.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="3" customWidth="1"/>
+    <col min="5" max="7" width="8.796875" style="3"/>
+    <col min="8" max="8" width="10.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>131</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>300</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>301</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>302</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>303</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>304</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>305</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>306</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>307</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,15 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -475,6 +482,66 @@
     <t>90.0, 0.0</t>
   </si>
   <si>
+    <t>Tile</t>
+  </si>
+  <si>
+    <t>texture\Tile\tile.bmp</t>
+  </si>
+  <si>
+    <t>tilemap</t>
+  </si>
+  <si>
+    <t>128.0, 64.0</t>
+  </si>
+  <si>
+    <t>128.0, 0.0</t>
+  </si>
+  <si>
+    <t>BlockBrick</t>
+  </si>
+  <si>
+    <t>texture\Block\block0.bmp</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>1.0, -47.0</t>
+  </si>
+  <si>
+    <t>148.0, 164.0</t>
+  </si>
+  <si>
+    <t>148.0, 0.0</t>
+  </si>
+  <si>
+    <t>BlockDirt</t>
+  </si>
+  <si>
+    <t>texture\Block\block1.bmp</t>
+  </si>
+  <si>
+    <t>0.0, -47.0</t>
+  </si>
+  <si>
+    <t>BlockGrass</t>
+  </si>
+  <si>
+    <t>texture\Block\block2.bmp</t>
+  </si>
+  <si>
+    <t>BlockStone</t>
+  </si>
+  <si>
+    <t>texture\Block\block3.bmp</t>
+  </si>
+  <si>
+    <t>BlockSnow</t>
+  </si>
+  <si>
+    <t>texture\Block\block4.bmp</t>
+  </si>
+  <si>
     <t>AnimationList</t>
   </si>
   <si>
@@ -487,6 +554,15 @@
     <t>100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>129, 130, 131, 132, 133</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
@@ -547,31 +623,10 @@
     <t>texture\Item\equipment4</t>
   </si>
   <si>
-    <t>Tile</t>
-  </si>
-  <si>
-    <t>texture\Tile\tile.bmp</t>
-  </si>
-  <si>
-    <t>tile</t>
-  </si>
-  <si>
-    <t>tilemap</t>
-  </si>
-  <si>
-    <t>64,32</t>
-  </si>
-  <si>
-    <t>128,64</t>
-  </si>
-  <si>
-    <t>0.0, 0.1</t>
-  </si>
-  <si>
-    <t>128,0</t>
-  </si>
-  <si>
-    <t>0, 0</t>
+    <t>0, 32</t>
+  </si>
+  <si>
+    <t>0, 50</t>
   </si>
 </sst>
 </file>
@@ -704,17 +759,17 @@
       <color theme="0"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <i/>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -948,6 +1003,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -956,6 +1012,7 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -964,6 +1021,7 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -972,6 +1030,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -986,6 +1045,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1000,6 +1060,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1014,6 +1075,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1022,6 +1084,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1032,6 +1095,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1110,10 +1174,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1122,10 +1186,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1134,10 +1198,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1146,10 +1210,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1158,10 +1222,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1170,16 +1234,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1528,17 +1592,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultColWidth="26.00390625" defaultRowHeight="15.000000"/>
   <cols>
-    <col min="2" max="2" width="21.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="4" width="32.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="13.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.500000">
@@ -2506,51 +2569,212 @@
         <v>128</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E31" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F31" s="0">
         <v>5</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>183</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="0">
+        <v>129</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="0">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0">
+        <v>3</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="0">
+        <v>130</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="0">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0">
+        <v>4</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="0">
+        <v>131</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="0">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0">
+        <v>4</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="0">
+        <v>132</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="0">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0">
+        <v>4</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="0">
+        <v>133</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="0">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0">
+        <v>3</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.500000">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2569,7 +2793,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2577,10 +2801,10 @@
         <v>200</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2588,10 +2812,21 @@
         <v>201</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="0">
-        <v>128</v>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="0">
+        <v>202</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2606,12 +2841,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.500000">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2625,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2656,13 +2891,13 @@
         <v>300</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -2676,13 +2911,13 @@
         <v>301</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
@@ -2696,13 +2931,13 @@
         <v>302</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -2716,13 +2951,13 @@
         <v>303</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -2736,13 +2971,13 @@
         <v>304</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E7" s="0">
         <v>30</v>
@@ -2756,13 +2991,13 @@
         <v>305</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E8" s="0">
         <v>15</v>
@@ -2776,13 +3011,13 @@
         <v>306</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E9" s="0">
         <v>10</v>
@@ -2796,13 +3031,13 @@
         <v>307</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E10" s="0">
         <v>20</v>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -16,15 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -77,7 +70,7 @@
     <t>player_front_noncombat</t>
   </si>
   <si>
-    <t>9.0, 69.0</t>
+    <t>0.0, -76.0</t>
   </si>
   <si>
     <t>0.0, 0.0</t>
@@ -95,7 +88,7 @@
     <t>texture\Player\move.bmp</t>
   </si>
   <si>
-    <t>6.0, 67.0</t>
+    <t>3.0, -72.0</t>
   </si>
   <si>
     <t>120.0, 192.0</t>
@@ -110,7 +103,7 @@
     <t>texture\Player\damaged.bmp</t>
   </si>
   <si>
-    <t>-11.0, 60.0</t>
+    <t>3.0, -65.0</t>
   </si>
   <si>
     <t>84.0, 154.0</t>
@@ -125,7 +118,7 @@
     <t>texture\Player\rolling.bmp</t>
   </si>
   <si>
-    <t>-3.0, 40.0</t>
+    <t>-6.0, -70.0</t>
   </si>
   <si>
     <t>99.0, 114.0</t>
@@ -140,7 +133,7 @@
     <t>texture\Player\landing.bmp</t>
   </si>
   <si>
-    <t>-6.0, 72.0</t>
+    <t>4.0, -70.0</t>
   </si>
   <si>
     <t>73.0, 171.0</t>
@@ -155,7 +148,7 @@
     <t>texture\Player\win.bmp</t>
   </si>
   <si>
-    <t>-9.0, 73.0</t>
+    <t>9.0, -70.0</t>
   </si>
   <si>
     <t>112.0, 176.0</t>
@@ -170,7 +163,7 @@
     <t>texture\Player\dash.bmp</t>
   </si>
   <si>
-    <t>25.0, 58.0</t>
+    <t>-19.0, -64.0</t>
   </si>
   <si>
     <t>144.0, 168.0</t>
@@ -185,7 +178,7 @@
     <t>texture\Player\fist.bmp</t>
   </si>
   <si>
-    <t>9.0, 64.0</t>
+    <t>2.0, -68.0</t>
   </si>
   <si>
     <t>123.0, 158.0</t>
@@ -203,7 +196,7 @@
     <t>player_front_melee</t>
   </si>
   <si>
-    <t>0.0, 67.0</t>
+    <t>0.0, -67.0</t>
   </si>
   <si>
     <t>98.0, 156.0</t>
@@ -218,7 +211,7 @@
     <t>texture\Player\sword.bmp</t>
   </si>
   <si>
-    <t>5.0, 69.0</t>
+    <t>3.0, -69.0</t>
   </si>
   <si>
     <t>104.0, 153.0</t>
@@ -233,7 +226,7 @@
     <t>texture\Player\lance.bmp</t>
   </si>
   <si>
-    <t>9.0, 66.0</t>
+    <t>16.0, -78.0</t>
   </si>
   <si>
     <t>122.0, 176.0</t>
@@ -248,7 +241,7 @@
     <t>texture\Player\axe.bmp</t>
   </si>
   <si>
-    <t>-3.0, 67.0</t>
+    <t>6.0, -74.0</t>
   </si>
   <si>
     <t>112.0, 164.0</t>
@@ -263,7 +256,7 @@
     <t>player_front_ranged</t>
   </si>
   <si>
-    <t>-14.0, 63.0</t>
+    <t>15.0, -66.0</t>
   </si>
   <si>
     <t>94.0, 157.0</t>
@@ -278,7 +271,7 @@
     <t>texture\Player\bow.bmp</t>
   </si>
   <si>
-    <t>-3.0, 80.0</t>
+    <t>-3.0, -81.0</t>
   </si>
   <si>
     <t>104.0, 184.0</t>
@@ -293,7 +286,7 @@
     <t>player_back_noncombat</t>
   </si>
   <si>
-    <t>5.0, 65.0</t>
+    <t>5.0, -65.0</t>
   </si>
   <si>
     <t>85.0, 166.0</t>
@@ -308,7 +301,7 @@
     <t>texture\Player\move2.bmp</t>
   </si>
   <si>
-    <t>-9.0, 69.0</t>
+    <t>6.0, -66.0</t>
   </si>
   <si>
     <t>93.0, 169.0</t>
@@ -323,7 +316,7 @@
     <t>texture\Player\damaged2.bmp</t>
   </si>
   <si>
-    <t>3.0, 58.0</t>
+    <t>3.0, -57.0</t>
   </si>
   <si>
     <t>104.0, 138.0</t>
@@ -335,7 +328,7 @@
     <t>texture\Player\rolling2.bmp</t>
   </si>
   <si>
-    <t>8.0, 50.0</t>
+    <t>0.0, -63.0</t>
   </si>
   <si>
     <t>107.0, 116.0</t>
@@ -350,7 +343,7 @@
     <t>texture\Player\landing2.bmp</t>
   </si>
   <si>
-    <t>-5.0, 73.0</t>
+    <t>11.0, -74.0</t>
   </si>
   <si>
     <t>84.0, 164.0</t>
@@ -362,7 +355,7 @@
     <t>texture\Player\win2.bmp</t>
   </si>
   <si>
-    <t>4.0, 77.0</t>
+    <t>-7.0, -74.0</t>
   </si>
   <si>
     <t>76.0, 173.0</t>
@@ -377,7 +370,7 @@
     <t>texture\Player\dash2.bmp</t>
   </si>
   <si>
-    <t>-17.0, 62.0</t>
+    <t>23.0, -67.0</t>
   </si>
   <si>
     <t>144.0, 160.0</t>
@@ -389,7 +382,7 @@
     <t>texture\Player\fist2.bmp</t>
   </si>
   <si>
-    <t>-15.0, 62.0</t>
+    <t>18.0, -64.0</t>
   </si>
   <si>
     <t>115.0, 161.0</t>
@@ -407,6 +400,9 @@
     <t>player_back_melee</t>
   </si>
   <si>
+    <t>-7.0, -67.0</t>
+  </si>
+  <si>
     <t>93.0, 157.0</t>
   </si>
   <si>
@@ -416,7 +412,7 @@
     <t>texture\Player\sword2.bmp</t>
   </si>
   <si>
-    <t>-5.0, 59.0</t>
+    <t>9.0, -64.0</t>
   </si>
   <si>
     <t>103.0, 154.0</t>
@@ -431,7 +427,7 @@
     <t>texture\Player\lance2.bmp</t>
   </si>
   <si>
-    <t>-13.0, 68.0</t>
+    <t>2.0, -66.0</t>
   </si>
   <si>
     <t>117.0, 159.0</t>
@@ -446,7 +442,7 @@
     <t>texture\Player\axe2.bmp</t>
   </si>
   <si>
-    <t>-1.0, 62.0</t>
+    <t>0.0, -61.0</t>
   </si>
   <si>
     <t>122.0, 145.0</t>
@@ -461,9 +457,6 @@
     <t>player_back_ranged</t>
   </si>
   <si>
-    <t>2.0, 63.0</t>
-  </si>
-  <si>
     <t>99.0, 153.0</t>
   </si>
   <si>
@@ -473,7 +466,7 @@
     <t>texture\Player\bow2.bmp</t>
   </si>
   <si>
-    <t>-1.0, 69.0</t>
+    <t>4.0, -69.0</t>
   </si>
   <si>
     <t>90.0, 166.0</t>
@@ -491,6 +484,9 @@
     <t>tilemap</t>
   </si>
   <si>
+    <t>0.0, -1.0</t>
+  </si>
+  <si>
     <t>128.0, 64.0</t>
   </si>
   <si>
@@ -506,7 +502,7 @@
     <t>block</t>
   </si>
   <si>
-    <t>1.0, -47.0</t>
+    <t>2.0, 50.0</t>
   </si>
   <si>
     <t>148.0, 164.0</t>
@@ -521,7 +517,7 @@
     <t>texture\Block\block1.bmp</t>
   </si>
   <si>
-    <t>0.0, -47.0</t>
+    <t>0.0, 50.0</t>
   </si>
   <si>
     <t>BlockGrass</t>
@@ -621,12 +617,6 @@
   </si>
   <si>
     <t>texture\Item\equipment4</t>
-  </si>
-  <si>
-    <t>0, 32</t>
-  </si>
-  <si>
-    <t>0, 50</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1237,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1594,1173 +1590,1172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.00390625" defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultColWidth="21.00390625" defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="2" width="7.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="16384" style="2" width="21.00499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.500000">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="0">
+      <c r="A3" s="2">
         <v>100</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="0">
+      <c r="A4" s="2">
         <v>101</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4" s="2">
         <v>6</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="0">
+      <c r="A5" s="2">
         <v>102</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5" s="2">
         <v>0.100000001490116</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="0">
+      <c r="A6" s="2">
         <v>103</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="2">
         <v>0.0700000002980232</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="0">
+      <c r="A7" s="2">
         <v>104</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="0">
+      <c r="A8" s="2">
         <v>105</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="0">
+      <c r="A9" s="2">
         <v>106</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="0">
+      <c r="A10" s="2">
         <v>107</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="0">
+      <c r="A11" s="2">
         <v>108</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="0">
+      <c r="A12" s="2">
         <v>109</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="0">
+      <c r="A13" s="2">
         <v>110</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13" s="2">
         <v>6</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="0">
+      <c r="A14" s="2">
         <v>111</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="0">
+      <c r="A15" s="2">
         <v>112</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15" s="2">
         <v>0.150000005960465</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="2">
         <v>6</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="0" t="s">
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="0">
+      <c r="A16" s="2">
         <v>113</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16" s="2">
         <v>0.150000005960465</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="0">
+      <c r="A17" s="2">
         <v>114</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="0">
+      <c r="A18" s="2">
         <v>115</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18" s="2">
         <v>6</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="0">
+      <c r="A19" s="2">
         <v>116</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="2">
         <v>0.100000001490116</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="0">
+      <c r="A20" s="2">
         <v>117</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20" s="2">
         <v>0.0700000002980232</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20" s="2">
         <v>3</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="0" t="s">
+      <c r="H20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="0">
+      <c r="A21" s="2">
         <v>118</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="0">
+      <c r="A22" s="2">
         <v>119</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="H22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="0">
+      <c r="A23" s="2">
         <v>120</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="0" t="s">
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="0">
+      <c r="A24" s="2">
         <v>121</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="0">
+      <c r="A25" s="2">
         <v>122</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25" s="2">
         <v>0.119999997317791</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25" s="2">
         <v>5</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="G25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="H25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="0">
+      <c r="A26" s="2">
         <v>123</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.119999997317791</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>124</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.119999997317791</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
+        <v>125</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.119999997317791</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.150000005960465</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.150000005960465</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
         <v>128</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
         <v>129</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0.119999997317791</v>
-      </c>
-      <c r="F26" s="0">
-        <v>5</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="B32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2">
         <v>130</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="B33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
         <v>131</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="B34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="0">
-        <v>124</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="B35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
         <v>133</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0.119999997317791</v>
-      </c>
-      <c r="F27" s="0">
-        <v>6</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="0">
-        <v>125</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0.119999997317791</v>
-      </c>
-      <c r="F28" s="0">
-        <v>5</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="0">
-        <v>126</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="0">
-        <v>0.150000005960465</v>
-      </c>
-      <c r="F29" s="0">
-        <v>6</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="0">
-        <v>127</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="0">
-        <v>0.150000005960465</v>
-      </c>
-      <c r="F30" s="0">
-        <v>5</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="0">
-        <v>128</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="0">
+      <c r="B36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="0">
-        <v>5</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="0">
-        <v>129</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="0">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0">
+      <c r="F36" s="2">
         <v>3</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="J32" s="0" t="s">
+      <c r="G36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="0">
-        <v>130</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="J36" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="0">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0">
-        <v>4</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="0">
-        <v>131</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="0">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0">
-        <v>4</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="0">
-        <v>132</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="0">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0">
-        <v>4</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="0">
-        <v>133</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="0">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0">
-        <v>3</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2782,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2793,7 +2788,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2801,10 +2796,10 @@
         <v>200</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2815,7 +2810,7 @@
         <v>152</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2823,10 +2818,10 @@
         <v>202</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2860,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2891,13 +2886,13 @@
         <v>300</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -2911,13 +2906,13 @@
         <v>301</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>183</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
@@ -2931,13 +2926,13 @@
         <v>302</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -2951,13 +2946,13 @@
         <v>303</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -2971,13 +2966,13 @@
         <v>304</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E7" s="0">
         <v>30</v>
@@ -2991,13 +2986,13 @@
         <v>305</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="E8" s="0">
         <v>15</v>
@@ -3011,13 +3006,13 @@
         <v>306</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E9" s="0">
         <v>10</v>
@@ -3031,13 +3026,13 @@
         <v>307</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E10" s="0">
         <v>20</v>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPI\WinAPIProj\Output\bin\content\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE0EE3B-F390-42BE-A1A4-1ACCACC5C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="-3427" yWindow="10702" windowWidth="19395" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
     <sheet name="200" sheetId="2" r:id="rId2"/>
     <sheet name="300" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -484,9 +489,6 @@
     <t>tilemap</t>
   </si>
   <si>
-    <t>0.0, -1.0</t>
-  </si>
-  <si>
     <t>128.0, 64.0</t>
   </si>
   <si>
@@ -617,149 +619,168 @@
   </si>
   <si>
     <t>texture\Item\equipment4</t>
+  </si>
+  <si>
+    <t>0, 0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
   <fills count="33">
@@ -767,232 +788,188 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1009,7 +986,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color rgb="FFACCCEA"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,7 +995,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,10 +1022,19 @@
         <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,11 +1054,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,218 +1080,193 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="2" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1587,1463 +1554,1460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.00390625" defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" style="2" width="7.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="16384" style="2" width="21.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="7.296875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.500000">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>0.119999997317791</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>0.119999997317791</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>102</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.100000001490116</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>103</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.0700000002980232</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6">
+        <v>7.0000000298023196E-2</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>104</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>0.119999997317791</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>105</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>106</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>107</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>0.119999997317791</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>108</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>0.119999997317791</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>109</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>0.119999997317791</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>110</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>0.119999997317791</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>111</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>0.119999997317791</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>112</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>0.150000005960465</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>113</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>0.150000005960465</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>114</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>0.119999997317791</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>115</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>0.119999997317791</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>116</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.100000001490116</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>117</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.0700000002980232</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20">
+        <v>7.0000000298023196E-2</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>118</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>0.119999997317791</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>119</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
         <v>113</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>120</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>121</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>0.119999997317791</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>122</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>0.119999997317791</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>5</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
         <v>128</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>123</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>0.119999997317791</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>124</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>0.119999997317791</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>6</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
         <v>137</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>125</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>0.119999997317791</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>5</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
         <v>142</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>126</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>0.150000005960465</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>127</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>0.150000005960465</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>5</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
         <v>150</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>128</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
         <v>155</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" t="s">
         <v>156</v>
       </c>
-      <c r="J31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2">
-        <v>129</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="2">
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>161</v>
+      </c>
+      <c r="J35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>3</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="J36" t="s">
         <v>162</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2">
-        <v>130</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>4</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="2">
-        <v>131</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>4</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2">
-        <v>132</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>4</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2">
-        <v>133</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>163</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="0">
-        <v>200</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="0">
-        <v>201</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="0">
-        <v>202</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>179</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="0" t="s">
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="0">
-        <v>300</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="0">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="0">
-        <v>301</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="0">
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F4" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="0">
-        <v>302</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="0">
-        <v>303</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="0">
-        <v>304</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="0">
-        <v>30</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="0">
-        <v>305</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="0">
-        <v>15</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="0">
-        <v>306</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="0">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="0">
-        <v>307</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="0">
-        <v>20</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPI\WinAPIProj\Output\bin\content\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE0EE3B-F390-42BE-A1A4-1ACCACC5C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741950CE-FEB1-4AC8-A2DF-DDC604DEA0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3427" yWindow="10702" windowWidth="19395" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1558,8 +1558,8 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2254,7 +2254,7 @@
         <v>88</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>88</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>154</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -2574,7 +2574,7 @@
         <v>159</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -2606,7 +2606,7 @@
         <v>159</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -2638,7 +2638,7 @@
         <v>159</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -2670,7 +2670,7 @@
         <v>159</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -2702,7 +2702,7 @@
         <v>159</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -2731,7 +2731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741950CE-FEB1-4AC8-A2DF-DDC604DEA0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92AF0AF-5F66-4738-8A44-A09DB27AF7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3427" yWindow="10702" windowWidth="19395" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3323" yWindow="10808" windowWidth="19186" windowHeight="11384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -622,6 +622,26 @@
   </si>
   <si>
     <t>0, 0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture\test.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>236, 133</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>236, 0</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -1555,11 +1575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2720,6 +2740,38 @@
         <v>162</v>
       </c>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2729,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2790,6 +2842,17 @@
       </c>
       <c r="C5" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92AF0AF-5F66-4738-8A44-A09DB27AF7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D5C166-3D1F-47EB-8419-5389138E7AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3323" yWindow="10808" windowWidth="19186" windowHeight="11384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="206">
   <si>
     <t>ID</t>
   </si>
@@ -629,19 +629,23 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>effect_light</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>texture\test.png</t>
+    <t>EffectLight</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>236, 133</t>
+    <t>texture\Effect\effect0.png</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>236, 0</t>
+    <t>153, 163</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>153, 0</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -1577,9 +1581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2745,19 +2749,19 @@
         <v>134</v>
       </c>
       <c r="B37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" t="s">
         <v>201</v>
       </c>
-      <c r="C37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" t="s">
-        <v>200</v>
-      </c>
       <c r="E37">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>199</v>
@@ -2766,10 +2770,10 @@
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,29 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="496">
   <si>
     <t>ID</t>
   </si>
@@ -1402,6 +1423,126 @@
   </si>
   <si>
     <t>2, 1, 1</t>
+  </si>
+  <si>
+    <t>BlockType</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>ELITE</t>
+  </si>
+  <si>
+    <t>RARE</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>SkillInfo.Eplanation</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>bow</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Trace, Barrier</t>
+  </si>
+  <si>
+    <t>trace, barrier</t>
+  </si>
+  <si>
+    <t>trace, random, heal</t>
+  </si>
+  <si>
+    <t>teleport, friendly_heal</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>dirt</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>snow</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4474,7 +4615,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -4617,12 +4758,12 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4636,13 +4777,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>315</v>
@@ -4662,13 +4803,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>11</v>
@@ -4687,17 +4828,17 @@
       <c r="D3" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="0">
         <v>20</v>
       </c>
-      <c r="F3" s="0">
+      <c r="G3" s="0">
         <v>10</v>
       </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>319</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4713,17 +4854,17 @@
       <c r="D4" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="0">
         <v>20</v>
       </c>
-      <c r="F4" s="0">
+      <c r="G4" s="0">
         <v>10</v>
       </c>
-      <c r="G4" s="0">
-        <v>0</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4739,17 +4880,17 @@
       <c r="D5" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="0">
         <v>20</v>
       </c>
-      <c r="F5" s="0">
+      <c r="G5" s="0">
         <v>10</v>
       </c>
-      <c r="G5" s="0">
-        <v>0</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4765,17 +4906,17 @@
       <c r="D6" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="0">
         <v>20</v>
       </c>
-      <c r="F6" s="0">
+      <c r="G6" s="0">
         <v>10</v>
       </c>
-      <c r="G6" s="0">
-        <v>0</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4791,17 +4932,17 @@
       <c r="D7" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="0">
         <v>20</v>
       </c>
-      <c r="F7" s="0">
+      <c r="G7" s="0">
         <v>10</v>
       </c>
-      <c r="G7" s="0">
-        <v>0</v>
-      </c>
       <c r="H7" s="0" t="s">
-        <v>331</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4817,17 +4958,17 @@
       <c r="D8" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="0">
         <v>40</v>
       </c>
-      <c r="F8" s="0">
+      <c r="G8" s="0">
         <v>20</v>
       </c>
-      <c r="G8" s="0">
-        <v>1</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>319</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4843,17 +4984,17 @@
       <c r="D9" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="0">
         <v>40</v>
       </c>
-      <c r="F9" s="0">
+      <c r="G9" s="0">
         <v>20</v>
       </c>
-      <c r="G9" s="0">
-        <v>1</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4869,17 +5010,17 @@
       <c r="D10" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="0">
         <v>40</v>
       </c>
-      <c r="F10" s="0">
+      <c r="G10" s="0">
         <v>20</v>
       </c>
-      <c r="G10" s="0">
-        <v>1</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4895,17 +5036,17 @@
       <c r="D11" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="0">
         <v>40</v>
       </c>
-      <c r="F11" s="0">
+      <c r="G11" s="0">
         <v>20</v>
       </c>
-      <c r="G11" s="0">
-        <v>1</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4921,17 +5062,17 @@
       <c r="D12" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="0">
         <v>40</v>
       </c>
-      <c r="F12" s="0">
+      <c r="G12" s="0">
         <v>20</v>
       </c>
-      <c r="G12" s="0">
-        <v>1</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>331</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4947,17 +5088,17 @@
       <c r="D13" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" s="0">
         <v>70</v>
       </c>
-      <c r="F13" s="0">
+      <c r="G13" s="0">
         <v>30</v>
       </c>
-      <c r="G13" s="0">
-        <v>2</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>319</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4973,17 +5114,17 @@
       <c r="D14" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="0">
         <v>70</v>
       </c>
-      <c r="F14" s="0">
+      <c r="G14" s="0">
         <v>30</v>
       </c>
-      <c r="G14" s="0">
-        <v>2</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4999,17 +5140,17 @@
       <c r="D15" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" s="0">
         <v>70</v>
       </c>
-      <c r="F15" s="0">
+      <c r="G15" s="0">
         <v>30</v>
       </c>
-      <c r="G15" s="0">
-        <v>2</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5025,17 +5166,17 @@
       <c r="D16" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" s="0">
         <v>70</v>
       </c>
-      <c r="F16" s="0">
+      <c r="G16" s="0">
         <v>30</v>
       </c>
-      <c r="G16" s="0">
-        <v>2</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5051,17 +5192,17 @@
       <c r="D17" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" s="0">
         <v>70</v>
       </c>
-      <c r="F17" s="0">
+      <c r="G17" s="0">
         <v>30</v>
       </c>
-      <c r="G17" s="0">
-        <v>2</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>331</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5077,17 +5218,17 @@
       <c r="D18" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18" s="0">
         <v>100</v>
       </c>
-      <c r="F18" s="0">
+      <c r="G18" s="0">
         <v>40</v>
       </c>
-      <c r="G18" s="0">
-        <v>3</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>319</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5103,17 +5244,17 @@
       <c r="D19" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F19" s="0">
         <v>100</v>
       </c>
-      <c r="F19" s="0">
+      <c r="G19" s="0">
         <v>40</v>
       </c>
-      <c r="G19" s="0">
-        <v>3</v>
-      </c>
       <c r="H19" s="0" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5129,17 +5270,17 @@
       <c r="D20" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F20" s="0">
         <v>100</v>
       </c>
-      <c r="F20" s="0">
+      <c r="G20" s="0">
         <v>40</v>
       </c>
-      <c r="G20" s="0">
-        <v>3</v>
-      </c>
       <c r="H20" s="0" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5155,17 +5296,17 @@
       <c r="D21" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" s="0">
         <v>100</v>
       </c>
-      <c r="F21" s="0">
+      <c r="G21" s="0">
         <v>40</v>
       </c>
-      <c r="G21" s="0">
-        <v>3</v>
-      </c>
       <c r="H21" s="0" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5181,17 +5322,17 @@
       <c r="D22" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" s="0">
         <v>100</v>
       </c>
-      <c r="F22" s="0">
+      <c r="G22" s="0">
         <v>40</v>
       </c>
-      <c r="G22" s="0">
-        <v>3</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>331</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5207,17 +5348,17 @@
       <c r="D23" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F23" s="0">
         <v>0</v>
       </c>
-      <c r="F23" s="0">
+      <c r="G23" s="0">
         <v>20</v>
       </c>
-      <c r="G23" s="0">
-        <v>0</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5233,17 +5374,17 @@
       <c r="D24" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F24" s="0">
         <v>0</v>
       </c>
-      <c r="F24" s="0">
+      <c r="G24" s="0">
         <v>45</v>
       </c>
-      <c r="G24" s="0">
-        <v>1</v>
-      </c>
       <c r="H24" s="0" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5259,17 +5400,17 @@
       <c r="D25" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F25" s="0">
         <v>0</v>
       </c>
-      <c r="F25" s="0">
+      <c r="G25" s="0">
         <v>70</v>
       </c>
-      <c r="G25" s="0">
-        <v>2</v>
-      </c>
       <c r="H25" s="0" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5285,17 +5426,17 @@
       <c r="D26" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="0">
         <v>0</v>
       </c>
-      <c r="F26" s="0">
+      <c r="G26" s="0">
         <v>100</v>
       </c>
-      <c r="G26" s="0">
-        <v>3</v>
-      </c>
       <c r="H26" s="0" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5311,17 +5452,17 @@
       <c r="D27" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F27" s="0">
         <v>0</v>
       </c>
-      <c r="F27" s="0">
+      <c r="G27" s="0">
         <v>20</v>
       </c>
-      <c r="G27" s="0">
-        <v>0</v>
-      </c>
       <c r="H27" s="0" t="s">
-        <v>374</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5337,17 +5478,17 @@
       <c r="D28" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F28" s="0">
         <v>0</v>
       </c>
-      <c r="F28" s="0">
+      <c r="G28" s="0">
         <v>45</v>
       </c>
-      <c r="G28" s="0">
-        <v>1</v>
-      </c>
       <c r="H28" s="0" t="s">
-        <v>374</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5363,17 +5504,17 @@
       <c r="D29" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="0">
         <v>0</v>
       </c>
-      <c r="F29" s="0">
+      <c r="G29" s="0">
         <v>70</v>
       </c>
-      <c r="G29" s="0">
-        <v>2</v>
-      </c>
       <c r="H29" s="0" t="s">
-        <v>374</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5389,17 +5530,17 @@
       <c r="D30" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F30" s="0">
         <v>0</v>
       </c>
-      <c r="F30" s="0">
+      <c r="G30" s="0">
         <v>100</v>
       </c>
-      <c r="G30" s="0">
-        <v>3</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>374</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5415,17 +5556,17 @@
       <c r="D31" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" s="0">
         <v>0</v>
       </c>
-      <c r="F31" s="0">
+      <c r="G31" s="0">
         <v>20</v>
       </c>
-      <c r="G31" s="0">
-        <v>0</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>383</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5441,17 +5582,17 @@
       <c r="D32" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F32" s="0">
         <v>0</v>
       </c>
-      <c r="F32" s="0">
+      <c r="G32" s="0">
         <v>45</v>
       </c>
-      <c r="G32" s="0">
-        <v>1</v>
-      </c>
       <c r="H32" s="0" t="s">
-        <v>383</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5467,17 +5608,17 @@
       <c r="D33" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F33" s="0">
         <v>0</v>
       </c>
-      <c r="F33" s="0">
+      <c r="G33" s="0">
         <v>70</v>
       </c>
-      <c r="G33" s="0">
-        <v>2</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>383</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5493,17 +5634,17 @@
       <c r="D34" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F34" s="0">
         <v>0</v>
       </c>
-      <c r="F34" s="0">
+      <c r="G34" s="0">
         <v>100</v>
       </c>
-      <c r="G34" s="0">
-        <v>3</v>
-      </c>
       <c r="H34" s="0" t="s">
-        <v>383</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5519,17 +5660,17 @@
       <c r="D35" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F35" s="0">
         <v>0</v>
       </c>
-      <c r="F35" s="0">
+      <c r="G35" s="0">
         <v>20</v>
       </c>
-      <c r="G35" s="0">
-        <v>0</v>
-      </c>
       <c r="H35" s="0" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5545,17 +5686,17 @@
       <c r="D36" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F36" s="0">
         <v>0</v>
       </c>
-      <c r="F36" s="0">
+      <c r="G36" s="0">
         <v>45</v>
       </c>
-      <c r="G36" s="0">
-        <v>1</v>
-      </c>
       <c r="H36" s="0" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5571,17 +5712,17 @@
       <c r="D37" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F37" s="0">
         <v>0</v>
       </c>
-      <c r="F37" s="0">
+      <c r="G37" s="0">
         <v>70</v>
       </c>
-      <c r="G37" s="0">
-        <v>2</v>
-      </c>
       <c r="H37" s="0" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5597,17 +5738,17 @@
       <c r="D38" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F38" s="0">
         <v>0</v>
       </c>
-      <c r="F38" s="0">
+      <c r="G38" s="0">
         <v>100</v>
       </c>
-      <c r="G38" s="0">
-        <v>3</v>
-      </c>
       <c r="H38" s="0" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5623,17 +5764,17 @@
       <c r="D39" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F39" s="0">
         <v>0</v>
       </c>
-      <c r="F39" s="0">
+      <c r="G39" s="0">
         <v>20</v>
       </c>
-      <c r="G39" s="0">
-        <v>0</v>
-      </c>
       <c r="H39" s="0" t="s">
-        <v>401</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5649,17 +5790,17 @@
       <c r="D40" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F40" s="0">
         <v>0</v>
       </c>
-      <c r="F40" s="0">
+      <c r="G40" s="0">
         <v>45</v>
       </c>
-      <c r="G40" s="0">
-        <v>1</v>
-      </c>
       <c r="H40" s="0" t="s">
-        <v>401</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5675,17 +5816,17 @@
       <c r="D41" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="F41" s="0">
         <v>0</v>
       </c>
-      <c r="F41" s="0">
+      <c r="G41" s="0">
         <v>70</v>
       </c>
-      <c r="G41" s="0">
-        <v>2</v>
-      </c>
       <c r="H41" s="0" t="s">
-        <v>401</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5701,145 +5842,33 @@
       <c r="D42" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F42" s="0">
         <v>0</v>
       </c>
-      <c r="F42" s="0">
+      <c r="G42" s="0">
         <v>100</v>
       </c>
-      <c r="G42" s="0">
-        <v>3</v>
-      </c>
       <c r="H42" s="0" t="s">
-        <v>401</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="0">
-        <v>400</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="0">
-        <v>3</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0">
-        <v>3</v>
-      </c>
-      <c r="I3" s="0">
-        <v>2</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>417</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -5852,25 +5881,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5884,13 +5913,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
@@ -5904,95 +5933,186 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="0">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D3" s="0">
-        <v>204</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="F3" s="0">
-        <v>100</v>
+      <c r="F3" s="0" t="s">
+        <v>474</v>
       </c>
       <c r="G3" s="0">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="H3" s="0">
         <v>3</v>
       </c>
       <c r="I3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="0">
-        <v>501</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="D4" s="0">
-        <v>205</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="F4" s="0">
-        <v>150</v>
-      </c>
-      <c r="G4" s="0">
-        <v>30</v>
-      </c>
-      <c r="H4" s="0">
         <v>2</v>
-      </c>
-      <c r="I4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="0">
-        <v>502</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="D5" s="0">
-        <v>206</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="F5" s="0">
-        <v>80</v>
-      </c>
-      <c r="G5" s="0">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0">
-        <v>2</v>
-      </c>
-      <c r="I5" s="0">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.500000">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="0">
+        <v>500</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="0">
+        <v>204</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E3" s="0">
+        <v>100</v>
+      </c>
+      <c r="F3" s="0">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="0">
+        <v>501</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="0">
+        <v>205</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" s="0">
+        <v>150</v>
+      </c>
+      <c r="F4" s="0">
+        <v>30</v>
+      </c>
+      <c r="G4" s="0">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="0">
+        <v>502</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="0">
+        <v>206</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" s="0">
+        <v>80</v>
+      </c>
+      <c r="F5" s="0">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6000,8 +6120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.37500000" defaultRowHeight="15.000000"/>
@@ -6015,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>444</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>435</v>
@@ -6024,8 +6144,9 @@
         <v>436</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>444</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -6064,7 +6185,7 @@
         <v>438</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -6084,7 +6205,7 @@
         <v>442</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -6104,7 +6225,7 @@
         <v>442</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -6124,7 +6245,7 @@
         <v>455</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6132,7 +6253,7 @@
         <v>604</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="C7" s="2">
         <v>502</v>
@@ -6141,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t>ID</t>
   </si>
@@ -1543,6 +1543,21 @@
   </si>
   <si>
     <t>snow</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>DifficultyLevel</t>
+  </si>
+  <si>
+    <t>1, 3, 1</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>502, 503</t>
   </si>
 </sst>
 </file>
@@ -4620,7 +4635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6118,10 +6133,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.37500000" defaultRowHeight="15.000000"/>
@@ -6130,7 +6145,7 @@
     <col min="2" max="16384" style="2" width="17.37999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.500000">
+    <row r="1" spans="1:6" ht="16.500000">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6146,12 +6161,11 @@
       <c r="E1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="F1" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6167,11 +6181,11 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>600</v>
       </c>
@@ -6187,11 +6201,11 @@
       <c r="E3" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>601</v>
       </c>
@@ -6207,16 +6221,16 @@
       <c r="E4" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>602</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>440</v>
@@ -6227,11 +6241,11 @@
       <c r="E5" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>603</v>
       </c>
@@ -6242,27 +6256,33 @@
         <v>453</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>604</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C7" s="2">
-        <v>502</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
+      <c r="C7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>495</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -4629,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -6135,8 +6135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.37500000" defaultRowHeight="15.000000"/>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -19,43 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="464">
   <si>
     <t>ID</t>
   </si>
@@ -756,7 +721,7 @@
     <t>-3.0, -69.0</t>
   </si>
   <si>
-    <t>122.0, 151.0</t>
+    <t>112.0, 151.0</t>
   </si>
   <si>
     <t>MushroomDamaged</t>
@@ -795,6 +760,9 @@
     <t>texture\Monster\Mushroom\magic.bmp</t>
   </si>
   <si>
+    <t>-4.0, -66.0</t>
+  </si>
+  <si>
     <t>125.0, 155.0</t>
   </si>
   <si>
@@ -807,6 +775,9 @@
     <t>texture\Monster\Mushroom\idle2.bmp</t>
   </si>
   <si>
+    <t>-6.0, -68.0</t>
+  </si>
+  <si>
     <t>121.0, 161.0</t>
   </si>
   <si>
@@ -819,6 +790,9 @@
     <t>texture\Monster\Mushroom\move2.bmp</t>
   </si>
   <si>
+    <t>-5.0, -68.0</t>
+  </si>
+  <si>
     <t>122.0, 155.0</t>
   </si>
   <si>
@@ -828,6 +802,9 @@
     <t>texture\Monster\Mushroom\damaged2.bmp</t>
   </si>
   <si>
+    <t>-2.0, -59.0</t>
+  </si>
+  <si>
     <t>122.0, 139.0</t>
   </si>
   <si>
@@ -837,6 +814,9 @@
     <t>texture\Monster\Mushroom\attack2.bmp</t>
   </si>
   <si>
+    <t>34.0, -77.0</t>
+  </si>
+  <si>
     <t>197.0, 197.0</t>
   </si>
   <si>
@@ -849,6 +829,9 @@
     <t>texture\Monster\Mushroom\magic2.bmp</t>
   </si>
   <si>
+    <t>6.0, -55.0</t>
+  </si>
+  <si>
     <t>122.0, 150.0</t>
   </si>
   <si>
@@ -858,6 +841,9 @@
     <t>texture\Monster\Spirit\idle.bmp</t>
   </si>
   <si>
+    <t>-1.0, -79.0</t>
+  </si>
+  <si>
     <t>151.0, 173.0</t>
   </si>
   <si>
@@ -870,6 +856,9 @@
     <t>texture\Monster\Spirit\damaged.bmp</t>
   </si>
   <si>
+    <t>14.0, -69.0</t>
+  </si>
+  <si>
     <t>123.0, 144.0</t>
   </si>
   <si>
@@ -879,6 +868,9 @@
     <t>texture\Monster\Spirit\attack.bmp</t>
   </si>
   <si>
+    <t>5.0, -80.0</t>
+  </si>
+  <si>
     <t>125.0, 168.0</t>
   </si>
   <si>
@@ -888,6 +880,9 @@
     <t>texture\Monster\Spirit\magic.bmp</t>
   </si>
   <si>
+    <t>-23.0, -74.0</t>
+  </si>
+  <si>
     <t>221.0, 167.0</t>
   </si>
   <si>
@@ -900,6 +895,9 @@
     <t>texture\Monster\Spirit\idle2.bmp</t>
   </si>
   <si>
+    <t>-0.0, -82.0</t>
+  </si>
+  <si>
     <t>151.0, 176.0</t>
   </si>
   <si>
@@ -909,6 +907,9 @@
     <t>texture\Monster\Spirit\damaged2.bmp</t>
   </si>
   <si>
+    <t>-1.0, -74.0</t>
+  </si>
+  <si>
     <t>127.0, 159.0</t>
   </si>
   <si>
@@ -921,6 +922,9 @@
     <t>texture\Monster\Spirit\attack2.bmp</t>
   </si>
   <si>
+    <t>-8.0, -79.0</t>
+  </si>
+  <si>
     <t>122.0, 168.0</t>
   </si>
   <si>
@@ -930,6 +934,9 @@
     <t>texture\Monster\Spirit\magic2.bmp</t>
   </si>
   <si>
+    <t>15.0, -77.0</t>
+  </si>
+  <si>
     <t>211.0, 169.0</t>
   </si>
   <si>
@@ -993,15 +1000,15 @@
     <t>155, 156, 157, 158, 159, 160, 161, 162</t>
   </si>
   <si>
+    <t>Grade</t>
+  </si>
+  <si>
     <t>ItemInfo.HP</t>
   </si>
   <si>
     <t>ItemInfo.Att</t>
   </si>
   <si>
-    <t>ItemInfo.Grade</t>
-  </si>
-  <si>
     <t>ItemInfo.ItemType</t>
   </si>
   <si>
@@ -1014,7 +1021,10 @@
     <t>texture\Item\Equipment\common0.bmp</t>
   </si>
   <si>
-    <t>Armor</t>
+    <t>common</t>
+  </si>
+  <si>
+    <t>armor</t>
   </si>
   <si>
     <t>CommonBoots</t>
@@ -1023,7 +1033,7 @@
     <t>texture\Item\Equipment\common1.bmp</t>
   </si>
   <si>
-    <t>Boots</t>
+    <t>boots</t>
   </si>
   <si>
     <t>CommonBottom</t>
@@ -1032,7 +1042,7 @@
     <t>texture\Item\Equipment\common2.bmp</t>
   </si>
   <si>
-    <t>Bottom</t>
+    <t>bottom</t>
   </si>
   <si>
     <t>CommonGloves</t>
@@ -1041,7 +1051,7 @@
     <t>texture\Item\Equipment\common3.bmp</t>
   </si>
   <si>
-    <t>Gloves</t>
+    <t>gloves</t>
   </si>
   <si>
     <t>CommonHelmet</t>
@@ -1050,7 +1060,7 @@
     <t>texture\Item\Equipment\common4.bmp</t>
   </si>
   <si>
-    <t>Helmet</t>
+    <t>helmet</t>
   </si>
   <si>
     <t>RareArmor</t>
@@ -1059,6 +1069,9 @@
     <t>texture\Item\Equipment\rare0.bmp</t>
   </si>
   <si>
+    <t>rare</t>
+  </si>
+  <si>
     <t>RareBoots</t>
   </si>
   <si>
@@ -1089,6 +1102,9 @@
     <t>texture\Item\Equipment\epic0.bmp</t>
   </si>
   <si>
+    <t>epic</t>
+  </si>
+  <si>
     <t>EpicBoots</t>
   </si>
   <si>
@@ -1119,6 +1135,9 @@
     <t>texture\Item\Equipment\unique0.bmp</t>
   </si>
   <si>
+    <t>unique</t>
+  </si>
+  <si>
     <t>UniqueBoots</t>
   </si>
   <si>
@@ -1152,7 +1171,7 @@
     <t>texture\Item\Weapon\axe0.bmp</t>
   </si>
   <si>
-    <t>Axe</t>
+    <t>axe</t>
   </si>
   <si>
     <t>RareAxe</t>
@@ -1179,7 +1198,7 @@
     <t>texture\Item\Weapon\bow0.bmp</t>
   </si>
   <si>
-    <t>Bow</t>
+    <t>bow</t>
   </si>
   <si>
     <t>RareBow</t>
@@ -1206,7 +1225,7 @@
     <t>texture\Item\Weapon\spear0.bmp</t>
   </si>
   <si>
-    <t>Spear</t>
+    <t>spear</t>
   </si>
   <si>
     <t>RareSpear</t>
@@ -1233,7 +1252,7 @@
     <t>texture\Item\Weapon\staff0.bmp</t>
   </si>
   <si>
-    <t>Staff</t>
+    <t>staff</t>
   </si>
   <si>
     <t>RareStaff</t>
@@ -1260,7 +1279,7 @@
     <t>texture\Item\Weapon\sword0.bmp</t>
   </si>
   <si>
-    <t>Sword</t>
+    <t>sword</t>
   </si>
   <si>
     <t>RareSword</t>
@@ -1281,27 +1300,21 @@
     <t>texture\Item\Weapon\sword3.bmp</t>
   </si>
   <si>
+    <t>Explanation</t>
+  </si>
+  <si>
     <t>SkillInfo.TileColor</t>
   </si>
   <si>
     <t>SkillInfo.Ratio</t>
   </si>
   <si>
-    <t>SkillInfo.Grade</t>
-  </si>
-  <si>
-    <t>SkillInfo.SkillType</t>
-  </si>
-  <si>
     <t>SkillInfo.Range</t>
   </si>
   <si>
     <t>SkillInfo.Cooldown</t>
   </si>
   <si>
-    <t>SkillInfo.Explanation</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -1311,55 +1324,40 @@
     <t>테스트용</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>AnimatorID</t>
   </si>
   <si>
     <t>Strategies</t>
   </si>
   <si>
-    <t>MonsterInfo.HP</t>
-  </si>
-  <si>
-    <t>MonsterInfo.ATT</t>
-  </si>
-  <si>
-    <t>MonsterInfo.Move</t>
-  </si>
-  <si>
-    <t>MonsterInfo.Range</t>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
   <si>
     <t>vector&lt;string&gt;</t>
   </si>
   <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>Trace</t>
-  </si>
-  <si>
-    <t>Trace, Random, Heal</t>
-  </si>
-  <si>
-    <t>Teleport, Barrier</t>
-  </si>
-  <si>
-    <t>122, 151</t>
-  </si>
-  <si>
-    <t>112, 151</t>
-  </si>
-  <si>
-    <t>112, 0</t>
-  </si>
-  <si>
-    <t>common0</t>
-  </si>
-  <si>
-    <t>common1</t>
-  </si>
-  <si>
-    <t>common2</t>
+    <t>trace, barrier</t>
+  </si>
+  <si>
+    <t>trace, random, heal</t>
+  </si>
+  <si>
+    <t>teleport, friendly_heal</t>
+  </si>
+  <si>
+    <t>MapType</t>
   </si>
   <si>
     <t>MonsterID</t>
@@ -1368,196 +1366,52 @@
     <t>NumberOfMonster</t>
   </si>
   <si>
-    <t>3,1</t>
+    <t>BlockType</t>
+  </si>
+  <si>
+    <t>DifficultyLevel</t>
+  </si>
+  <si>
+    <t>500, 501</t>
   </si>
   <si>
     <t>3, 1</t>
   </si>
   <si>
-    <t>500, 501</t>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>2, 2</t>
+  </si>
+  <si>
+    <t>dirt</t>
+  </si>
+  <si>
+    <t>elite</t>
   </si>
   <si>
     <t>501, 502</t>
   </si>
   <si>
-    <t>2, 1</t>
-  </si>
-  <si>
-    <t>2, 2</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>MapType</t>
-  </si>
-  <si>
-    <t>BRICK</t>
-  </si>
-  <si>
-    <t>DIRT</t>
-  </si>
-  <si>
-    <t>GRASS</t>
-  </si>
-  <si>
-    <t>STONE</t>
-  </si>
-  <si>
-    <t>SNOW</t>
-  </si>
-  <si>
-    <t>common3</t>
-  </si>
-  <si>
-    <t>common4</t>
-  </si>
-  <si>
-    <t>500, 502</t>
+    <t>grass</t>
   </si>
   <si>
     <t>501, 502, 503</t>
   </si>
   <si>
-    <t>1, 1, 1</t>
-  </si>
-  <si>
-    <t>2, 1, 1</t>
-  </si>
-  <si>
-    <t>BlockType</t>
-  </si>
-  <si>
-    <t>elite</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>COMMON</t>
-  </si>
-  <si>
-    <t>ELITE</t>
-  </si>
-  <si>
-    <t>RARE</t>
-  </si>
-  <si>
-    <t>EPIC</t>
-  </si>
-  <si>
-    <t>UNIQUE</t>
-  </si>
-  <si>
-    <t>rare</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>SkillInfo.Eplanation</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>ATT</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>boots</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>helmet</t>
-  </si>
-  <si>
-    <t>axe</t>
-  </si>
-  <si>
-    <t>bow</t>
-  </si>
-  <si>
-    <t>spear</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>Heal</t>
-  </si>
-  <si>
-    <t>Trace, Barrier</t>
-  </si>
-  <si>
-    <t>trace, barrier</t>
-  </si>
-  <si>
-    <t>trace, random, heal</t>
-  </si>
-  <si>
-    <t>teleport, friendly_heal</t>
-  </si>
-  <si>
-    <t>brick</t>
-  </si>
-  <si>
-    <t>dirt</t>
-  </si>
-  <si>
-    <t>grass</t>
+    <t>1, 3, 1</t>
   </si>
   <si>
     <t>stone</t>
   </si>
   <si>
+    <t>502, 503</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
     <t>snow</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>DifficultyLevel</t>
-  </si>
-  <si>
-    <t>1, 3, 1</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>502, 503</t>
   </si>
 </sst>
 </file>
@@ -1690,17 +1544,17 @@
       <color theme="0"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <i/>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1934,6 +1788,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1942,6 +1797,7 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1950,6 +1806,7 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1958,6 +1815,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1972,6 +1830,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1986,6 +1845,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -2000,6 +1860,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2008,6 +1869,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2018,6 +1880,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -2096,10 +1959,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2108,10 +1971,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2120,10 +1983,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2132,10 +1995,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2144,10 +2007,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2156,32 +2019,23 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2525,16 +2379,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.37500000" defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultColWidth="22.50390625" defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="6.50500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.500000">
@@ -4055,7 +3909,7 @@
         <v>177</v>
       </c>
       <c r="E48" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F48" s="0">
         <v>6</v>
@@ -4099,10 +3953,10 @@
         <v>18</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>430</v>
+        <v>233</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>431</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4183,22 +4037,22 @@
         <v>193</v>
       </c>
       <c r="E52" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F52" s="0">
         <v>6</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4206,31 +4060,31 @@
         <v>150</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>204</v>
       </c>
       <c r="E53" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F53" s="0">
         <v>6</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4238,28 +4092,28 @@
         <v>151</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>204</v>
       </c>
       <c r="E54" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F54" s="0">
         <v>6</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>71</v>
@@ -4270,28 +4124,28 @@
         <v>152</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>204</v>
       </c>
       <c r="E55" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F55" s="0">
         <v>4</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>71</v>
@@ -4302,31 +4156,31 @@
         <v>153</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>219</v>
       </c>
       <c r="E56" s="0">
-        <v>0.1</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F56" s="0">
         <v>11</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4334,28 +4188,28 @@
         <v>154</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>219</v>
       </c>
       <c r="E57" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F57" s="0">
         <v>6</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>71</v>
@@ -4366,31 +4220,31 @@
         <v>155</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E58" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F58" s="0">
         <v>6</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4398,28 +4252,28 @@
         <v>156</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E59" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F59" s="0">
         <v>4</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>55</v>
@@ -4430,31 +4284,31 @@
         <v>157</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>193</v>
       </c>
       <c r="E60" s="0">
-        <v>0.1</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F60" s="0">
         <v>9</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4462,31 +4316,31 @@
         <v>158</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>193</v>
       </c>
       <c r="E61" s="0">
-        <v>0.1</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F61" s="0">
         <v>10</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4494,31 +4348,31 @@
         <v>159</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>204</v>
       </c>
       <c r="E62" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F62" s="0">
         <v>6</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4526,31 +4380,31 @@
         <v>160</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>204</v>
       </c>
       <c r="E63" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F63" s="0">
         <v>4</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4558,28 +4412,28 @@
         <v>161</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>219</v>
       </c>
       <c r="E64" s="0">
-        <v>0.1</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F64" s="0">
         <v>9</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>71</v>
@@ -4590,38 +4444,37 @@
         <v>162</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>219</v>
       </c>
       <c r="E65" s="0">
-        <v>0.12</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F65" s="0">
         <v>10</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4629,13 +4482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4660,7 +4513,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4668,13 +4521,13 @@
         <v>200</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4685,10 +4538,10 @@
         <v>150</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4696,13 +4549,13 @@
         <v>202</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4710,13 +4563,13 @@
         <v>203</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4724,13 +4577,13 @@
         <v>204</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4738,13 +4591,13 @@
         <v>205</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4752,13 +4605,13 @@
         <v>206</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4773,12 +4626,12 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.500000">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4792,16 +4645,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4835,16 +4688,16 @@
         <v>300</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F3" s="0">
         <v>20</v>
@@ -4853,7 +4706,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>475</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4861,16 +4714,16 @@
         <v>301</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F4" s="0">
         <v>20</v>
@@ -4879,7 +4732,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>476</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4887,16 +4740,16 @@
         <v>302</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F5" s="0">
         <v>20</v>
@@ -4905,7 +4758,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4913,16 +4766,16 @@
         <v>303</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F6" s="0">
         <v>20</v>
@@ -4931,7 +4784,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4939,16 +4792,16 @@
         <v>304</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F7" s="0">
         <v>20</v>
@@ -4957,7 +4810,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>479</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4965,16 +4818,16 @@
         <v>305</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F8" s="0">
         <v>40</v>
@@ -4983,7 +4836,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>475</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4991,16 +4844,16 @@
         <v>306</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F9" s="0">
         <v>40</v>
@@ -5009,7 +4862,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>476</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5017,16 +4870,16 @@
         <v>307</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F10" s="0">
         <v>40</v>
@@ -5035,7 +4888,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5043,16 +4896,16 @@
         <v>308</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F11" s="0">
         <v>40</v>
@@ -5061,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5069,16 +4922,16 @@
         <v>309</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F12" s="0">
         <v>40</v>
@@ -5087,7 +4940,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>479</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5095,16 +4948,16 @@
         <v>310</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F13" s="0">
         <v>70</v>
@@ -5113,7 +4966,7 @@
         <v>30</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>475</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5121,16 +4974,16 @@
         <v>311</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F14" s="0">
         <v>70</v>
@@ -5139,7 +4992,7 @@
         <v>30</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>476</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5147,16 +5000,16 @@
         <v>312</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F15" s="0">
         <v>70</v>
@@ -5165,7 +5018,7 @@
         <v>30</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5173,16 +5026,16 @@
         <v>313</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F16" s="0">
         <v>70</v>
@@ -5191,7 +5044,7 @@
         <v>30</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5199,16 +5052,16 @@
         <v>314</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F17" s="0">
         <v>70</v>
@@ -5217,7 +5070,7 @@
         <v>30</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>479</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5225,16 +5078,16 @@
         <v>315</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F18" s="0">
         <v>100</v>
@@ -5243,7 +5096,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>475</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5251,16 +5104,16 @@
         <v>316</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F19" s="0">
         <v>100</v>
@@ -5269,7 +5122,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>476</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5277,16 +5130,16 @@
         <v>317</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F20" s="0">
         <v>100</v>
@@ -5295,7 +5148,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5303,16 +5156,16 @@
         <v>318</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F21" s="0">
         <v>100</v>
@@ -5321,7 +5174,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5329,16 +5182,16 @@
         <v>319</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F22" s="0">
         <v>100</v>
@@ -5347,7 +5200,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>479</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5355,16 +5208,16 @@
         <v>320</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -5373,7 +5226,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5381,16 +5234,16 @@
         <v>321</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -5399,7 +5252,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5407,16 +5260,16 @@
         <v>322</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5425,7 +5278,7 @@
         <v>70</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5433,16 +5286,16 @@
         <v>323</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>466</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5451,7 +5304,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5459,16 +5312,16 @@
         <v>324</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5477,7 +5330,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>481</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5485,16 +5338,16 @@
         <v>325</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5503,7 +5356,7 @@
         <v>45</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>481</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5511,16 +5364,16 @@
         <v>326</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5529,7 +5382,7 @@
         <v>70</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>481</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5537,16 +5390,16 @@
         <v>327</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -5555,7 +5408,7 @@
         <v>100</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>481</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5563,16 +5416,16 @@
         <v>328</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F31" s="0">
         <v>0</v>
@@ -5581,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5589,16 +5442,16 @@
         <v>329</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F32" s="0">
         <v>0</v>
@@ -5607,7 +5460,7 @@
         <v>45</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5615,16 +5468,16 @@
         <v>330</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F33" s="0">
         <v>0</v>
@@ -5633,7 +5486,7 @@
         <v>70</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5641,16 +5494,16 @@
         <v>331</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F34" s="0">
         <v>0</v>
@@ -5659,7 +5512,7 @@
         <v>100</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5667,16 +5520,16 @@
         <v>332</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F35" s="0">
         <v>0</v>
@@ -5685,7 +5538,7 @@
         <v>20</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5693,16 +5546,16 @@
         <v>333</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F36" s="0">
         <v>0</v>
@@ -5711,7 +5564,7 @@
         <v>45</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5719,16 +5572,16 @@
         <v>334</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F37" s="0">
         <v>0</v>
@@ -5737,7 +5590,7 @@
         <v>70</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5745,16 +5598,16 @@
         <v>335</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F38" s="0">
         <v>0</v>
@@ -5763,7 +5616,7 @@
         <v>100</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5771,16 +5624,16 @@
         <v>336</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F39" s="0">
         <v>0</v>
@@ -5789,7 +5642,7 @@
         <v>20</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5797,16 +5650,16 @@
         <v>337</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -5815,7 +5668,7 @@
         <v>45</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5823,16 +5676,16 @@
         <v>338</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F41" s="0">
         <v>0</v>
@@ -5841,7 +5694,7 @@
         <v>70</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5849,16 +5702,16 @@
         <v>339</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
@@ -5867,14 +5720,13 @@
         <v>100</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5883,12 +5735,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.500000">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5899,22 +5751,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5951,19 +5803,19 @@
         <v>400</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="G3" s="0">
         <v>1.5</v>
@@ -5979,7 +5831,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5988,12 +5839,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.500000">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6001,22 +5852,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6030,7 +5881,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>12</v>
@@ -6050,13 +5901,13 @@
         <v>500</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C3" s="0">
         <v>204</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>488</v>
+        <v>442</v>
       </c>
       <c r="E3" s="0">
         <v>100</v>
@@ -6076,13 +5927,13 @@
         <v>501</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C4" s="0">
         <v>205</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>489</v>
+        <v>443</v>
       </c>
       <c r="E4" s="0">
         <v>150</v>
@@ -6102,13 +5953,13 @@
         <v>502</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C5" s="0">
         <v>206</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="E5" s="0">
         <v>80</v>
@@ -6127,7 +5978,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6136,159 +5986,154 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.37500000" defaultRowHeight="15.000000"/>
-  <cols>
-    <col min="1" max="1" style="2" width="10.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="16384" style="2" width="17.37999916" customWidth="1" outlineLevel="0"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.500000">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="0">
+        <v>600</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="0">
+        <v>601</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="0">
+        <v>602</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>600</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D5" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>601</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>602</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="0">
         <v>603</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="0">
         <v>604</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B7" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="F7" s="0">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.30" footer="0.30"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
   <si>
     <t>ID</t>
   </si>
@@ -1412,6 +1412,9 @@
   </si>
   <si>
     <t>snow</t>
+  </si>
+  <si>
+    <t>500, 501, 502</t>
   </si>
 </sst>
 </file>
@@ -1544,17 +1547,17 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1788,7 +1791,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1797,7 +1799,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1806,7 +1807,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1815,7 +1815,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1830,7 +1829,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1845,7 +1843,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1860,7 +1857,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1869,7 +1865,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1880,7 +1875,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1959,10 +1953,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1971,10 +1965,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1983,10 +1977,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1995,10 +1989,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2007,10 +2001,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2019,16 +2013,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2379,11 +2373,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.50390625" defaultRowHeight="15.000000"/>
@@ -4488,7 +4482,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4626,12 +4620,12 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5735,12 +5729,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5839,12 +5833,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5985,13 +5979,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6099,7 +6093,7 @@
         <v>333</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>459</v>
@@ -6119,7 +6113,7 @@
         <v>455</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>462</v>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{5390AE2C-4D13-4C85-A125-3F2DA6AF225B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="5"/>
+    <workbookView xWindow="-3218" yWindow="10800" windowWidth="19186" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
     <sheet name="500" sheetId="5" r:id="rId5"/>
     <sheet name="600" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="465">
   <si>
     <t>ID</t>
   </si>
@@ -1396,18 +1402,12 @@
     <t>grass</t>
   </si>
   <si>
-    <t>501, 502, 503</t>
-  </si>
-  <si>
     <t>1, 3, 1</t>
   </si>
   <si>
     <t>stone</t>
   </si>
   <si>
-    <t>502, 503</t>
-  </si>
-  <si>
     <t>2, 3</t>
   </si>
   <si>
@@ -1415,149 +1415,172 @@
   </si>
   <si>
     <t>500, 501, 502</t>
+  </si>
+  <si>
+    <t>AnimationInfo.EventFrame</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1565,218 +1588,270 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1791,80 +1866,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1875,214 +1877,199 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="2" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2370,22 +2357,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.50390625" defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+    <col min="2" max="11" width="22.5" style="1"/>
+    <col min="16" max="16384" width="22.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.500000">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2405,3729 +2394,3922 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="0">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="1">
         <v>0.12</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="0">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>101</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4" s="1">
         <v>0.12</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4" s="1">
         <v>6</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="0">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>102</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5" s="1">
         <v>0.12</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="0">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>103</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="1">
         <v>0.1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="0">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>104</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7" s="1">
         <v>0.12</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="0">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>105</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8" s="1">
         <v>9999999</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="0">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>106</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9" s="1">
         <v>9999999</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="0">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>107</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="0">
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.12</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="0">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>108</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11" s="1">
         <v>0.12</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="0">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
         <v>109</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12" s="1">
         <v>0.12</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="K12" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="0">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13" s="1">
         <v>0.12</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="0">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>111</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14" s="1">
         <v>0.12</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="K14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="0">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>112</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15" s="1">
         <v>0.12</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="1">
         <v>6</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="K15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="0">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>113</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16" s="1">
         <v>0.12</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="1">
         <v>4</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="K16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="0">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>114</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17" s="1">
         <v>0.12</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="0">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>115</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18" s="1">
         <v>0.12</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18" s="1">
         <v>6</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="0">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>116</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="1">
         <v>0.12</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="0">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>117</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20" s="1">
         <v>0.1</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="0">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>118</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21" s="1">
         <v>0.12</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="0">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>119</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="1">
         <v>9999999</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="0">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>120</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23" s="1">
         <v>9999999</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="K23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="0">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>121</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="0">
+      <c r="D24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="1">
         <v>0.12</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="0">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
         <v>122</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25" s="1">
         <v>0.12</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="K25" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="0">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
         <v>123</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26" s="1">
         <v>0.12</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="K26" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="0">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
         <v>124</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27" s="1">
         <v>0.12</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27" s="1">
         <v>6</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="K27" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="0">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
         <v>125</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28" s="1">
         <v>0.12</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="K28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="0">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
         <v>126</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29" s="1">
         <v>0.12</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29" s="1">
         <v>6</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="K29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="0">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
         <v>127</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30" s="1">
         <v>0.12</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30" s="1">
         <v>5</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="0">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
         <v>128</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31" s="1">
         <v>9999999</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31" s="1">
         <v>9</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="K31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="0">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
         <v>129</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32" s="1">
         <v>9999999</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32" s="1">
         <v>3</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="K32" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="0">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
         <v>130</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33" s="1">
         <v>9999999</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33" s="1">
         <v>4</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="K33" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="0">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
         <v>131</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34" s="1">
         <v>9999999</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34" s="1">
         <v>4</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="K34" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="0">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
         <v>132</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35" s="1">
         <v>9999999</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35" s="1">
         <v>4</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="K35" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="0">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
         <v>133</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36" s="1">
         <v>9999999</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36" s="1">
         <v>3</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="K36" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="0">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
         <v>134</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37" s="1">
         <v>0.1</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37" s="1">
         <v>15</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="0" t="s">
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="K37" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="0">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
         <v>135</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38" s="1">
         <v>0.12</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38" s="1">
         <v>6</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="K38" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="0">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
         <v>136</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39" s="1">
         <v>0.12</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39" s="1">
         <v>6</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="K39" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="0">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
         <v>137</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40" s="1">
         <v>0.12</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40" s="1">
         <v>4</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="K40" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="0">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
         <v>138</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41" s="1">
         <v>0.12</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41" s="1">
         <v>8</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="K41" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="0">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
         <v>139</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="0">
-        <v>0.100000001490116</v>
-      </c>
-      <c r="F42" s="0">
+      <c r="E42" s="1">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="F42" s="1">
         <v>4</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="K42" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="0">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
         <v>140</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43" s="1">
         <v>0.12</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43" s="1">
         <v>6</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="K43" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="0">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
         <v>141</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44" s="1">
         <v>0.12</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44" s="1">
         <v>6</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="K44" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="0">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
         <v>142</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45" s="1">
         <v>0.12</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45" s="1">
         <v>4</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="K45" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="0">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
         <v>143</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46" s="1">
         <v>0.12</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46" s="1">
         <v>8</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="K46" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="0">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
         <v>144</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47" s="1">
         <v>0.15</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47" s="1">
         <v>2</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="K47" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="0">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
         <v>145</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F48" s="0">
+      <c r="F48" s="1">
         <v>6</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="K48" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="0">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>146</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49" s="1">
         <v>0.12</v>
       </c>
-      <c r="F49" s="0">
+      <c r="F49" s="1">
         <v>6</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="K49" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="0">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>147</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50" s="1">
         <v>0.12</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50" s="1">
         <v>4</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="K50" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="0">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
         <v>148</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E51" s="0">
-        <v>0.100000001490116</v>
-      </c>
-      <c r="F51" s="0">
+      <c r="E51" s="1">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="F51" s="1">
         <v>11</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="K51" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="0">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
         <v>149</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52" s="1">
         <v>6</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="K52" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="0">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
         <v>150</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53" s="1">
         <v>6</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="K53" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="0">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
         <v>151</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54" s="1">
         <v>6</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="K54" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="0">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
         <v>152</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55" s="1">
         <v>4</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="K55" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="0">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
         <v>153</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E56" s="0">
-        <v>0.100000001490116</v>
-      </c>
-      <c r="F56" s="0">
+      <c r="E56" s="1">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="F56" s="1">
         <v>11</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="0" t="s">
+      <c r="I56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J56" s="0" t="s">
+      <c r="K56" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="0">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
         <v>154</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57" s="1">
         <v>6</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J57" s="0" t="s">
+      <c r="K57" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="0">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
         <v>155</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58" s="1">
         <v>6</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J58" s="0" t="s">
+      <c r="K58" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="0">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
         <v>156</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59" s="1">
         <v>4</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J59" s="0" t="s">
+      <c r="K59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="0">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
         <v>157</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="0">
-        <v>0.100000001490116</v>
-      </c>
-      <c r="F60" s="0">
+      <c r="E60" s="1">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="F60" s="1">
         <v>9</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="0" t="s">
+      <c r="I60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J60" s="0" t="s">
+      <c r="K60" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="0">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
         <v>158</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="0">
-        <v>0.100000001490116</v>
-      </c>
-      <c r="F61" s="0">
+      <c r="E61" s="1">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="F61" s="1">
         <v>10</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="0" t="s">
+      <c r="I61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="K61" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="0">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <v>159</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62" s="1">
         <v>6</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="K62" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="0">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
         <v>160</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63" s="1">
         <v>4</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="K63" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="0">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
         <v>161</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E64" s="0">
-        <v>0.100000001490116</v>
-      </c>
-      <c r="F64" s="0">
+      <c r="E64" s="1">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="F64" s="1">
         <v>9</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J64" s="0" t="s">
+      <c r="K64" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="0">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
         <v>162</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="1">
         <v>0.119999997317791</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65" s="1">
         <v>10</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="K65" s="1" t="s">
         <v>306</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="0">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>200</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>201</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>202</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>203</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>204</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>205</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>206</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>325</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="0">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>300</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>332</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>333</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="0">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>301</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>333</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="0">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>302</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>339</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="0">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>303</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>342</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>333</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="0">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>304</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>333</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>305</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>348</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>349</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>40</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="0">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>306</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>331</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>351</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>40</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="0">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>307</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>352</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>353</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>40</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="0">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>308</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>354</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>331</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>355</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>40</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>20</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="0">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>309</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>331</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>357</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>349</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>40</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="0">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>310</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>359</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>360</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>70</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>30</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="0">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>311</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>362</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>360</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>70</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>30</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="0">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>312</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>364</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>360</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>70</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>30</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="0">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>313</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>331</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>366</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>360</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>70</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>30</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="0">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>314</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>367</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>331</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>368</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>360</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>70</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>30</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="0">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>315</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>331</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>371</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>100</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>40</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="0">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>316</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>331</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>371</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>100</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>40</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="0">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>317</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>374</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>331</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>375</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>371</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>100</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>40</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="0">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>318</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>376</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>377</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>371</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>100</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>40</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="0">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>319</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>331</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>379</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>371</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>100</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>40</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="0">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>320</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>382</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>333</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>20</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="0">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>321</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>384</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>381</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>385</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>349</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>45</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="0">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>322</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>386</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>381</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>70</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="0">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>323</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>388</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>381</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>389</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>371</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>100</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="0">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>324</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>390</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>381</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>391</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>333</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" s="0">
+      <c r="G27">
         <v>20</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="0">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>325</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>393</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>381</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>394</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="0">
+      <c r="G28">
         <v>45</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="0">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>326</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>395</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>381</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>396</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>360</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="0">
+      <c r="G29">
         <v>70</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="0">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>327</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>397</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>381</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>398</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="0">
+      <c r="G30">
         <v>100</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="0">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>328</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>399</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>400</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>333</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="0">
+      <c r="G31">
         <v>20</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="0">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>329</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>402</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>381</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>403</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>349</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="0">
+      <c r="G32">
         <v>45</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="0">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>330</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>404</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>381</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>405</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>360</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="0">
+      <c r="G33">
         <v>70</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="0">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>331</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>406</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>381</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>407</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>371</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="0">
+      <c r="G34">
         <v>100</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="0">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>332</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>408</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>381</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>409</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>333</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G35">
         <v>20</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="0">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>333</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>411</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>381</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>412</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>349</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" s="0">
+      <c r="G36">
         <v>45</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="0">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>334</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>413</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>381</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>414</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>360</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="0">
+      <c r="G37">
         <v>70</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="0">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>335</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>415</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>381</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>416</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>371</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="0">
+      <c r="G38">
         <v>100</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="0">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>336</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>417</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>381</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>418</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>333</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" s="0">
+      <c r="G39">
         <v>20</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="0">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>337</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>381</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>421</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>349</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="0">
+      <c r="G40">
         <v>45</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="0">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>338</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>422</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>381</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>423</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>360</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41">
         <v>70</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="0">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42">
         <v>339</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>381</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>425</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>371</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="0">
+      <c r="G42">
         <v>100</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" t="s">
         <v>419</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>428</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>429</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="0">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>400</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>431</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>433</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>333</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>434</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>1.5</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>437</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>439</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="0">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>500</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>204</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>442</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="0">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>501</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>205</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>443</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>150</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="0">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>502</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>206</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>444</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>80</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>447</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>448</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>308</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="0">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>600</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>451</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="0">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>601</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>450</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>453</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>454</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="0">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>602</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>455</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>456</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>453</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>457</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>603</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" t="s">
         <v>459</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>604</v>
+      </c>
+      <c r="B7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" t="s">
         <v>460</v>
       </c>
-      <c r="F6" s="0">
+      <c r="E7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="0">
-        <v>604</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="F7" s="0">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{5390AE2C-4D13-4C85-A125-3F2DA6AF225B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E545F60B-8806-40B1-991B-6EBAA4A74885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3218" yWindow="10800" windowWidth="19186" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2361,10 +2361,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3654,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>18</v>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.180.50690"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E545F60B-8806-40B1-991B-6EBAA4A74885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3218" yWindow="10800" windowWidth="19186" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -20,13 +14,20 @@
     <sheet name="500" sheetId="5" r:id="rId5"/>
     <sheet name="600" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t>ID</t>
   </si>
@@ -1418,169 +1419,350 @@
   </si>
   <si>
     <t>AnimationInfo.EventFrame</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_front</t>
+  </si>
+  <si>
+    <t>move_fron</t>
+  </si>
+  <si>
+    <t>move_front</t>
+  </si>
+  <si>
+    <t>damaged_front</t>
+  </si>
+  <si>
+    <t>rolling_front</t>
+  </si>
+  <si>
+    <t>landing_front</t>
+  </si>
+  <si>
+    <t>win_front</t>
+  </si>
+  <si>
+    <t>dash_front</t>
+  </si>
+  <si>
+    <t>attack_front</t>
+  </si>
+  <si>
+    <t>attack0_front</t>
+  </si>
+  <si>
+    <t>uppercut_front</t>
+  </si>
+  <si>
+    <t>fist_front</t>
+  </si>
+  <si>
+    <t>sword_front</t>
+  </si>
+  <si>
+    <t>lance_front</t>
+  </si>
+  <si>
+    <t>axe_front</t>
+  </si>
+  <si>
+    <t>gun_front</t>
+  </si>
+  <si>
+    <t>bow_front</t>
+  </si>
+  <si>
+    <t>idle_back</t>
+  </si>
+  <si>
+    <t>move_back</t>
+  </si>
+  <si>
+    <t>damaged_back</t>
+  </si>
+  <si>
+    <t>rolling_back</t>
+  </si>
+  <si>
+    <t>landing_back</t>
+  </si>
+  <si>
+    <t>win_back</t>
+  </si>
+  <si>
+    <t>dash_back</t>
+  </si>
+  <si>
+    <t>fist_back</t>
+  </si>
+  <si>
+    <t>uppercut_back</t>
+  </si>
+  <si>
+    <t>sword_back</t>
+  </si>
+  <si>
+    <t>lance_back</t>
+  </si>
+  <si>
+    <t>axe_back</t>
+  </si>
+  <si>
+    <t>gun_back</t>
+  </si>
+  <si>
+    <t>bow_back</t>
+  </si>
+  <si>
+    <t>magic_front</t>
+  </si>
+  <si>
+    <t>damage_back</t>
+  </si>
+  <si>
+    <t>attack_back</t>
+  </si>
+  <si>
+    <t>magic_back</t>
+  </si>
+  <si>
+    <t>front_idle</t>
+  </si>
+  <si>
+    <t>front_move</t>
+  </si>
+  <si>
+    <t>front_damaged</t>
+  </si>
+  <si>
+    <t>front_rolling</t>
+  </si>
+  <si>
+    <t>front_landing</t>
+  </si>
+  <si>
+    <t>front_win</t>
+  </si>
+  <si>
+    <t>front_dash</t>
+  </si>
+  <si>
+    <t>front_fist</t>
+  </si>
+  <si>
+    <t>front_uppercut</t>
+  </si>
+  <si>
+    <t>front_sword</t>
+  </si>
+  <si>
+    <t>front_lance</t>
+  </si>
+  <si>
+    <t>front_axe</t>
+  </si>
+  <si>
+    <t>front_gun</t>
+  </si>
+  <si>
+    <t>front_bow</t>
+  </si>
+  <si>
+    <t>back_idle</t>
+  </si>
+  <si>
+    <t>back_move</t>
+  </si>
+  <si>
+    <t>bacK_damaged</t>
+  </si>
+  <si>
+    <t>back_damaged</t>
+  </si>
+  <si>
+    <t>back_rolling</t>
+  </si>
+  <si>
+    <t>back_landing</t>
+  </si>
+  <si>
+    <t>back_win</t>
+  </si>
+  <si>
+    <t>back_dash</t>
+  </si>
+  <si>
+    <t>back_fist</t>
+  </si>
+  <si>
+    <t>back_uppercut</t>
+  </si>
+  <si>
+    <t>back_sword</t>
+  </si>
+  <si>
+    <t>back_lacne</t>
+  </si>
+  <si>
+    <t>back_axe</t>
+  </si>
+  <si>
+    <t>back_gun</t>
+  </si>
+  <si>
+    <t>back_bow</t>
+  </si>
+  <si>
+    <t>front_attack</t>
+  </si>
+  <si>
+    <t>front_magic</t>
+  </si>
+  <si>
+    <t>back_attack</t>
+  </si>
+  <si>
+    <t>back_magic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="20">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="major"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1588,179 +1770,195 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1770,7 +1968,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1779,25 +1976,22 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1812,7 +2006,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1827,7 +2020,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1836,7 +2028,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1851,7 +2042,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1866,7 +2056,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1877,134 +2066,154 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2016,7 +2225,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2045,10 +2254,14 @@
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="백분율" xfId="44" builtinId="5"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="쉼표" xfId="42" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="45" builtinId="6"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -2058,18 +2271,11 @@
     <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="통화" xfId="43" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="46" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="47" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2357,24 +2563,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="22.50000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="11" width="22.5" style="1"/>
-    <col min="16" max="16384" width="22.5" style="1"/>
+    <col min="1" max="1" style="1" width="6.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="22.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="44.38000107" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="11" style="1" width="22.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16384" style="1" width="22.50499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2444,7 +2652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -2455,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1">
         <v>0.12</v>
@@ -2479,7 +2687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -2490,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>501</v>
       </c>
       <c r="E4" s="1">
         <v>0.12</v>
@@ -2514,7 +2722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>102</v>
       </c>
@@ -2525,7 +2733,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>502</v>
       </c>
       <c r="E5" s="1">
         <v>0.12</v>
@@ -2549,7 +2757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>103</v>
       </c>
@@ -2560,7 +2768,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
       <c r="E6" s="1">
         <v>0.1</v>
@@ -2584,7 +2792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>104</v>
       </c>
@@ -2595,7 +2803,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>504</v>
       </c>
       <c r="E7" s="1">
         <v>0.12</v>
@@ -2619,7 +2827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>105</v>
       </c>
@@ -2630,7 +2838,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="E8" s="1">
         <v>9999999</v>
@@ -2654,7 +2862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>106</v>
       </c>
@@ -2665,7 +2873,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>506</v>
       </c>
       <c r="E9" s="1">
         <v>9999999</v>
@@ -2689,7 +2897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>107</v>
       </c>
@@ -2700,7 +2908,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>507</v>
       </c>
       <c r="E10" s="1">
         <v>0.12</v>
@@ -2724,7 +2932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>108</v>
       </c>
@@ -2735,7 +2943,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>508</v>
       </c>
       <c r="E11" s="1">
         <v>0.12</v>
@@ -2759,7 +2967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>109</v>
       </c>
@@ -2770,7 +2978,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>509</v>
       </c>
       <c r="E12" s="1">
         <v>0.12</v>
@@ -2794,7 +3002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>110</v>
       </c>
@@ -2805,7 +3013,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>510</v>
       </c>
       <c r="E13" s="1">
         <v>0.12</v>
@@ -2829,7 +3037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>111</v>
       </c>
@@ -2840,7 +3048,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>511</v>
       </c>
       <c r="E14" s="1">
         <v>0.12</v>
@@ -2864,7 +3072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>112</v>
       </c>
@@ -2875,7 +3083,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>512</v>
       </c>
       <c r="E15" s="1">
         <v>0.12</v>
@@ -2899,7 +3107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>113</v>
       </c>
@@ -2910,7 +3118,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>513</v>
       </c>
       <c r="E16" s="1">
         <v>0.12</v>
@@ -2934,7 +3142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>114</v>
       </c>
@@ -2945,7 +3153,7 @@
         <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>514</v>
       </c>
       <c r="E17" s="1">
         <v>0.12</v>
@@ -2969,7 +3177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>115</v>
       </c>
@@ -2980,7 +3188,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>515</v>
       </c>
       <c r="E18" s="1">
         <v>0.12</v>
@@ -3004,7 +3212,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>116</v>
       </c>
@@ -3015,7 +3223,7 @@
         <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>517</v>
       </c>
       <c r="E19" s="1">
         <v>0.12</v>
@@ -3039,7 +3247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>117</v>
       </c>
@@ -3050,7 +3258,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>518</v>
       </c>
       <c r="E20" s="1">
         <v>0.1</v>
@@ -3074,7 +3282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>118</v>
       </c>
@@ -3085,7 +3293,7 @@
         <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>519</v>
       </c>
       <c r="E21" s="1">
         <v>0.12</v>
@@ -3109,7 +3317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>119</v>
       </c>
@@ -3120,7 +3328,7 @@
         <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>520</v>
       </c>
       <c r="E22" s="1">
         <v>9999999</v>
@@ -3144,7 +3352,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>120</v>
       </c>
@@ -3155,7 +3363,7 @@
         <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>87</v>
+        <v>521</v>
       </c>
       <c r="E23" s="1">
         <v>9999999</v>
@@ -3179,7 +3387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>121</v>
       </c>
@@ -3190,7 +3398,7 @@
         <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>522</v>
       </c>
       <c r="E24" s="1">
         <v>0.12</v>
@@ -3214,7 +3422,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>122</v>
       </c>
@@ -3225,7 +3433,7 @@
         <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>125</v>
+        <v>523</v>
       </c>
       <c r="E25" s="1">
         <v>0.12</v>
@@ -3249,7 +3457,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>123</v>
       </c>
@@ -3260,7 +3468,7 @@
         <v>129</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>125</v>
+        <v>524</v>
       </c>
       <c r="E26" s="1">
         <v>0.12</v>
@@ -3284,7 +3492,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>124</v>
       </c>
@@ -3295,7 +3503,7 @@
         <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>125</v>
+        <v>525</v>
       </c>
       <c r="E27" s="1">
         <v>0.12</v>
@@ -3319,7 +3527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>125</v>
       </c>
@@ -3330,7 +3538,7 @@
         <v>139</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>526</v>
       </c>
       <c r="E28" s="1">
         <v>0.12</v>
@@ -3354,7 +3562,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>126</v>
       </c>
@@ -3365,7 +3573,7 @@
         <v>143</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="E29" s="1">
         <v>0.12</v>
@@ -3389,7 +3597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>127</v>
       </c>
@@ -3400,7 +3608,7 @@
         <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="E30" s="1">
         <v>0.12</v>
@@ -3424,7 +3632,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>128</v>
       </c>
@@ -3459,7 +3667,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>129</v>
       </c>
@@ -3494,7 +3702,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>130</v>
       </c>
@@ -3529,7 +3737,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>131</v>
       </c>
@@ -3564,7 +3772,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>132</v>
       </c>
@@ -3599,7 +3807,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>133</v>
       </c>
@@ -3634,7 +3842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>134</v>
       </c>
@@ -3669,7 +3877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>135</v>
       </c>
@@ -3680,7 +3888,7 @@
         <v>176</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="E38" s="1">
         <v>0.12</v>
@@ -3704,7 +3912,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>136</v>
       </c>
@@ -3715,7 +3923,7 @@
         <v>182</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>177</v>
+        <v>501</v>
       </c>
       <c r="E39" s="1">
         <v>0.12</v>
@@ -3739,7 +3947,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>137</v>
       </c>
@@ -3750,7 +3958,7 @@
         <v>187</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>177</v>
+        <v>502</v>
       </c>
       <c r="E40" s="1">
         <v>0.12</v>
@@ -3774,7 +3982,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>138</v>
       </c>
@@ -3785,7 +3993,7 @@
         <v>192</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>193</v>
+        <v>529</v>
       </c>
       <c r="E41" s="1">
         <v>0.12</v>
@@ -3809,7 +4017,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>139</v>
       </c>
@@ -3820,10 +4028,10 @@
         <v>198</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>193</v>
+        <v>530</v>
       </c>
       <c r="E42" s="1">
-        <v>0.10000000149011599</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F42" s="1">
         <v>4</v>
@@ -3844,7 +4052,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>140</v>
       </c>
@@ -3855,7 +4063,7 @@
         <v>203</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>204</v>
+        <v>514</v>
       </c>
       <c r="E43" s="1">
         <v>0.12</v>
@@ -3879,7 +4087,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -3890,7 +4098,7 @@
         <v>209</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="E44" s="1">
         <v>0.12</v>
@@ -3914,7 +4122,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -3925,7 +4133,7 @@
         <v>214</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>204</v>
+        <v>517</v>
       </c>
       <c r="E45" s="1">
         <v>0.12</v>
@@ -3949,7 +4157,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -3960,7 +4168,7 @@
         <v>218</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>219</v>
+        <v>531</v>
       </c>
       <c r="E46" s="1">
         <v>0.12</v>
@@ -3984,7 +4192,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>144</v>
       </c>
@@ -3995,7 +4203,7 @@
         <v>223</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>219</v>
+        <v>532</v>
       </c>
       <c r="E47" s="1">
         <v>0.15</v>
@@ -4019,7 +4227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>145</v>
       </c>
@@ -4030,7 +4238,7 @@
         <v>227</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="E48" s="1">
         <v>0.119999997317791</v>
@@ -4054,7 +4262,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>146</v>
       </c>
@@ -4065,7 +4273,7 @@
         <v>231</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>177</v>
+        <v>501</v>
       </c>
       <c r="E49" s="1">
         <v>0.12</v>
@@ -4089,7 +4297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>147</v>
       </c>
@@ -4100,7 +4308,7 @@
         <v>235</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>177</v>
+        <v>502</v>
       </c>
       <c r="E50" s="1">
         <v>0.12</v>
@@ -4124,7 +4332,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>148</v>
       </c>
@@ -4135,10 +4343,10 @@
         <v>240</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>193</v>
+        <v>529</v>
       </c>
       <c r="E51" s="1">
-        <v>0.10000000149011599</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F51" s="1">
         <v>11</v>
@@ -4159,7 +4367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>149</v>
       </c>
@@ -4170,7 +4378,7 @@
         <v>245</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>193</v>
+        <v>530</v>
       </c>
       <c r="E52" s="1">
         <v>0.119999997317791</v>
@@ -4194,7 +4402,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>150</v>
       </c>
@@ -4205,7 +4413,7 @@
         <v>250</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>204</v>
+        <v>514</v>
       </c>
       <c r="E53" s="1">
         <v>0.119999997317791</v>
@@ -4229,7 +4437,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>151</v>
       </c>
@@ -4240,7 +4448,7 @@
         <v>255</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="E54" s="1">
         <v>0.119999997317791</v>
@@ -4264,7 +4472,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>152</v>
       </c>
@@ -4275,7 +4483,7 @@
         <v>259</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>204</v>
+        <v>517</v>
       </c>
       <c r="E55" s="1">
         <v>0.119999997317791</v>
@@ -4299,7 +4507,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>153</v>
       </c>
@@ -4310,10 +4518,10 @@
         <v>263</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>219</v>
+        <v>531</v>
       </c>
       <c r="E56" s="1">
-        <v>0.10000000149011599</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F56" s="1">
         <v>11</v>
@@ -4334,7 +4542,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>154</v>
       </c>
@@ -4345,7 +4553,7 @@
         <v>268</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>219</v>
+        <v>532</v>
       </c>
       <c r="E57" s="1">
         <v>0.119999997317791</v>
@@ -4369,7 +4577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>155</v>
       </c>
@@ -4380,7 +4588,7 @@
         <v>272</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="E58" s="1">
         <v>0.119999997317791</v>
@@ -4404,7 +4612,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>156</v>
       </c>
@@ -4415,7 +4623,7 @@
         <v>277</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>177</v>
+        <v>502</v>
       </c>
       <c r="E59" s="1">
         <v>0.119999997317791</v>
@@ -4439,7 +4647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>157</v>
       </c>
@@ -4450,10 +4658,10 @@
         <v>281</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>193</v>
+        <v>529</v>
       </c>
       <c r="E60" s="1">
-        <v>0.10000000149011599</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F60" s="1">
         <v>9</v>
@@ -4474,7 +4682,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>158</v>
       </c>
@@ -4485,10 +4693,10 @@
         <v>285</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>193</v>
+        <v>530</v>
       </c>
       <c r="E61" s="1">
-        <v>0.10000000149011599</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F61" s="1">
         <v>10</v>
@@ -4509,7 +4717,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>159</v>
       </c>
@@ -4520,7 +4728,7 @@
         <v>290</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>204</v>
+        <v>514</v>
       </c>
       <c r="E62" s="1">
         <v>0.119999997317791</v>
@@ -4544,7 +4752,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>160</v>
       </c>
@@ -4555,7 +4763,7 @@
         <v>294</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>204</v>
+        <v>517</v>
       </c>
       <c r="E63" s="1">
         <v>0.119999997317791</v>
@@ -4579,7 +4787,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>161</v>
       </c>
@@ -4590,10 +4798,10 @@
         <v>299</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>219</v>
+        <v>531</v>
       </c>
       <c r="E64" s="1">
-        <v>0.10000000149011599</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F64" s="1">
         <v>9</v>
@@ -4614,7 +4822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>162</v>
       </c>
@@ -4625,7 +4833,7 @@
         <v>303</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>219</v>
+        <v>532</v>
       </c>
       <c r="E65" s="1">
         <v>0.119999997317791</v>
@@ -4650,1666 +4858,1669 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="0">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:4">
+      <c r="A4" s="0">
         <v>201</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:4">
+      <c r="A5" s="0">
         <v>202</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:4">
+      <c r="A6" s="0">
         <v>203</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:4">
+      <c r="A7" s="0">
         <v>204</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:4">
+      <c r="A8" s="0">
         <v>205</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:4">
+      <c r="A9" s="0">
         <v>206</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>325</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="0">
         <v>300</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="0">
         <v>301</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" s="0">
         <v>302</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:8">
+      <c r="A6" s="0">
         <v>303</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:8">
+      <c r="A7" s="0">
         <v>304</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:8">
+      <c r="A8" s="0">
         <v>305</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>40</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:8">
+      <c r="A9" s="0">
         <v>306</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>40</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:8">
+      <c r="A10" s="0">
         <v>307</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>40</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="0" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:8">
+      <c r="A11" s="0">
         <v>308</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>40</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="0" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="12" spans="1:8">
+      <c r="A12" s="0">
         <v>309</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>40</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="0" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:8">
+      <c r="A13" s="0">
         <v>310</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>70</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>30</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:8">
+      <c r="A14" s="0">
         <v>311</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>70</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:8">
+      <c r="A15" s="0">
         <v>312</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>70</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>30</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="0" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="16" spans="1:8">
+      <c r="A16" s="0">
         <v>313</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>70</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>30</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
+    <row r="17" spans="1:8">
+      <c r="A17" s="0">
         <v>314</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>70</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>30</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="18" spans="1:8">
+      <c r="A18" s="0">
         <v>315</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>40</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:8">
+      <c r="A19" s="0">
         <v>316</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="0" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:8">
+      <c r="A20" s="0">
         <v>317</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>100</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>40</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="21" spans="1:8">
+      <c r="A21" s="0">
         <v>318</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>100</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>40</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="0" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="22" spans="1:8">
+      <c r="A22" s="0">
         <v>319</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>100</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>40</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="0" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="23" spans="1:8">
+      <c r="A23" s="0">
         <v>320</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
+    <row r="24" spans="1:8">
+      <c r="A24" s="0">
         <v>321</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>45</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="25" spans="1:8">
+      <c r="A25" s="0">
         <v>322</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>70</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:8">
+      <c r="A26" s="0">
         <v>323</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>100</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27">
+    <row r="27" spans="1:8">
+      <c r="A27" s="0">
         <v>324</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="0" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:8">
+      <c r="A28" s="0">
         <v>325</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>45</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="29" spans="1:8">
+      <c r="A29" s="0">
         <v>326</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>70</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="30" spans="1:8">
+      <c r="A30" s="0">
         <v>327</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>100</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31">
+    <row r="31" spans="1:8">
+      <c r="A31" s="0">
         <v>328</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>20</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32">
+    <row r="32" spans="1:8">
+      <c r="A32" s="0">
         <v>329</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>45</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="33" spans="1:8">
+      <c r="A33" s="0">
         <v>330</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>70</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34">
+    <row r="34" spans="1:8">
+      <c r="A34" s="0">
         <v>331</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>100</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="0" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="35" spans="1:8">
+      <c r="A35" s="0">
         <v>332</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>20</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36">
+    <row r="36" spans="1:8">
+      <c r="A36" s="0">
         <v>333</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>45</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37">
+    <row r="37" spans="1:8">
+      <c r="A37" s="0">
         <v>334</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>70</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="0" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38">
+    <row r="38" spans="1:8">
+      <c r="A38" s="0">
         <v>335</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39">
+    <row r="39" spans="1:8">
+      <c r="A39" s="0">
         <v>336</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>20</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40">
+    <row r="40" spans="1:8">
+      <c r="A40" s="0">
         <v>337</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>45</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41">
+    <row r="41" spans="1:8">
+      <c r="A41" s="0">
         <v>338</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>70</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42">
+    <row r="42" spans="1:8">
+      <c r="A42" s="0">
         <v>339</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>100</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="0" t="s">
         <v>419</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="0">
         <v>400</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>1.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="0">
         <v>500</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>204</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="0">
         <v>501</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>205</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>150</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" s="0">
         <v>502</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>206</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>80</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="0">
         <v>600</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="0">
         <v>601</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="0">
         <v>602</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="0">
         <v>603</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:6">
+      <c r="A7" s="0">
         <v>604</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -2567,10 +2567,10 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.50000000" defaultRowHeight="16.500000"/>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.180.50690"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1364CC96-4046-4375-9679-1AA0935EF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="-3218" yWindow="10800" windowWidth="19186" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -14,20 +20,12 @@
     <sheet name="500" sheetId="5" r:id="rId5"/>
     <sheet name="600" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="490">
   <si>
     <t>ID</t>
   </si>
@@ -77,9 +75,6 @@
     <t>texture\Player\idle.bmp</t>
   </si>
   <si>
-    <t>player_front</t>
-  </si>
-  <si>
     <t>0.0, -76.0</t>
   </si>
   <si>
@@ -203,9 +198,6 @@
     <t>texture\Player\uppercut.bmp</t>
   </si>
   <si>
-    <t>player_front_attack</t>
-  </si>
-  <si>
     <t>0.0, -67.0</t>
   </si>
   <si>
@@ -290,9 +282,6 @@
     <t>texture\Player\idle2.bmp</t>
   </si>
   <si>
-    <t>player_back</t>
-  </si>
-  <si>
     <t>5.0, -65.0</t>
   </si>
   <si>
@@ -404,9 +393,6 @@
     <t>texture\Player\uppercut2.bmp</t>
   </si>
   <si>
-    <t>player_back_attack</t>
-  </si>
-  <si>
     <t>-7.0, -67.0</t>
   </si>
   <si>
@@ -560,9 +546,6 @@
     <t>texture\Monster\Rabbit\idle.bmp</t>
   </si>
   <si>
-    <t>monster_front</t>
-  </si>
-  <si>
     <t>24.0, -84.0</t>
   </si>
   <si>
@@ -608,9 +591,6 @@
     <t>texture\Monster\Rabbit\attack.bmp</t>
   </si>
   <si>
-    <t>monster_front_attack</t>
-  </si>
-  <si>
     <t>-12.0, -81.0</t>
   </si>
   <si>
@@ -641,9 +621,6 @@
     <t>texture\Monster\Rabbit\idle2.bmp</t>
   </si>
   <si>
-    <t>monster_back</t>
-  </si>
-  <si>
     <t>2.0, -80.0</t>
   </si>
   <si>
@@ -686,9 +663,6 @@
     <t>texture\Monster\Rabbit\attack2.bmp</t>
   </si>
   <si>
-    <t>monster_back_attack</t>
-  </si>
-  <si>
     <t>-11.0, -82.0</t>
   </si>
   <si>
@@ -1355,12 +1329,6 @@
     <t>vector&lt;string&gt;</t>
   </si>
   <si>
-    <t>trace, barrier</t>
-  </si>
-  <si>
-    <t>trace, random, heal</t>
-  </si>
-  <si>
     <t>teleport, friendly_heal</t>
   </si>
   <si>
@@ -1424,111 +1392,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>idle_front</t>
-  </si>
-  <si>
-    <t>move_fron</t>
-  </si>
-  <si>
-    <t>move_front</t>
-  </si>
-  <si>
-    <t>damaged_front</t>
-  </si>
-  <si>
-    <t>rolling_front</t>
-  </si>
-  <si>
-    <t>landing_front</t>
-  </si>
-  <si>
-    <t>win_front</t>
-  </si>
-  <si>
-    <t>dash_front</t>
-  </si>
-  <si>
-    <t>attack_front</t>
-  </si>
-  <si>
-    <t>attack0_front</t>
-  </si>
-  <si>
-    <t>uppercut_front</t>
-  </si>
-  <si>
-    <t>fist_front</t>
-  </si>
-  <si>
-    <t>sword_front</t>
-  </si>
-  <si>
-    <t>lance_front</t>
-  </si>
-  <si>
-    <t>axe_front</t>
-  </si>
-  <si>
-    <t>gun_front</t>
-  </si>
-  <si>
-    <t>bow_front</t>
-  </si>
-  <si>
-    <t>idle_back</t>
-  </si>
-  <si>
-    <t>move_back</t>
-  </si>
-  <si>
-    <t>damaged_back</t>
-  </si>
-  <si>
-    <t>rolling_back</t>
-  </si>
-  <si>
-    <t>landing_back</t>
-  </si>
-  <si>
-    <t>win_back</t>
-  </si>
-  <si>
-    <t>dash_back</t>
-  </si>
-  <si>
-    <t>fist_back</t>
-  </si>
-  <si>
-    <t>uppercut_back</t>
-  </si>
-  <si>
-    <t>sword_back</t>
-  </si>
-  <si>
-    <t>lance_back</t>
-  </si>
-  <si>
-    <t>axe_back</t>
-  </si>
-  <si>
-    <t>gun_back</t>
-  </si>
-  <si>
-    <t>bow_back</t>
-  </si>
-  <si>
-    <t>magic_front</t>
-  </si>
-  <si>
-    <t>damage_back</t>
-  </si>
-  <si>
-    <t>attack_back</t>
-  </si>
-  <si>
-    <t>magic_back</t>
-  </si>
-  <si>
     <t>front_idle</t>
   </si>
   <si>
@@ -1577,9 +1440,6 @@
     <t>back_move</t>
   </si>
   <si>
-    <t>bacK_damaged</t>
-  </si>
-  <si>
     <t>back_damaged</t>
   </si>
   <si>
@@ -1626,143 +1486,192 @@
   </si>
   <si>
     <t>back_magic</t>
+  </si>
+  <si>
+    <t>trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="major"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C5700"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="0"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1770,10 +1679,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1825,19 +1731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1849,19 +1755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1873,19 +1779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1897,19 +1803,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1921,19 +1827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1945,19 +1851,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1968,6 +1874,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1976,22 +1883,25 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499980"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2006,6 +1916,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2020,6 +1931,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2028,6 +1940,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -2042,6 +1955,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2056,6 +1970,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2066,166 +1981,155 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="44">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2254,14 +2158,11 @@
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="백분율" xfId="44" builtinId="5"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="쉼표" xfId="42" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="45" builtinId="6"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -2271,11 +2172,19 @@
     <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="통화" xfId="43" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="46" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="42" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2563,26 +2472,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.50000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" style="1" width="6.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="22.50499916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="44.38000107" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="11" style="1" width="22.50499916" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16384" style="1" width="22.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.3984375" style="1" customWidth="1"/>
+    <col min="4" max="11" width="22.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="22.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2617,7 +2528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -2652,7 +2563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -2663,7 +2574,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="E3" s="1">
         <v>0.12</v>
@@ -2675,30 +2586,30 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="E4" s="1">
         <v>0.12</v>
@@ -2710,30 +2621,30 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="E5" s="1">
         <v>0.12</v>
@@ -2745,30 +2656,30 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="E6" s="1">
         <v>0.1</v>
@@ -2780,30 +2691,30 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="E7" s="1">
         <v>0.12</v>
@@ -2815,30 +2726,30 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="E8" s="1">
         <v>9999999</v>
@@ -2850,30 +2761,30 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="E9" s="1">
         <v>9999999</v>
@@ -2885,30 +2796,30 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="E10" s="1">
         <v>0.12</v>
@@ -2920,30 +2831,30 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>108</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="E11" s="1">
         <v>0.12</v>
@@ -2955,30 +2866,30 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>109</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="E12" s="1">
         <v>0.12</v>
@@ -2990,30 +2901,30 @@
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="E13" s="1">
         <v>0.12</v>
@@ -3025,30 +2936,30 @@
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="E14" s="1">
         <v>0.12</v>
@@ -3060,30 +2971,30 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="E15" s="1">
         <v>0.12</v>
@@ -3095,30 +3006,30 @@
         <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="E16" s="1">
         <v>0.12</v>
@@ -3130,30 +3041,30 @@
         <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="E17" s="1">
         <v>0.12</v>
@@ -3165,30 +3076,30 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="E18" s="1">
         <v>0.12</v>
@@ -3200,30 +3111,30 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="E19" s="1">
         <v>0.12</v>
@@ -3235,30 +3146,30 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="E20" s="1">
         <v>0.1</v>
@@ -3270,30 +3181,30 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E21" s="1">
         <v>0.12</v>
@@ -3305,30 +3216,30 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>119</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="E22" s="1">
         <v>9999999</v>
@@ -3340,30 +3251,30 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E23" s="1">
         <v>9999999</v>
@@ -3375,30 +3286,30 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>121</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="E24" s="1">
         <v>0.12</v>
@@ -3410,30 +3321,30 @@
         <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="E25" s="1">
         <v>0.12</v>
@@ -3445,30 +3356,30 @@
         <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="E26" s="1">
         <v>0.12</v>
@@ -3480,30 +3391,30 @@
         <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="E27" s="1">
         <v>0.12</v>
@@ -3515,30 +3426,30 @@
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="E28" s="1">
         <v>0.12</v>
@@ -3550,30 +3461,30 @@
         <v>2</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="E29" s="1">
         <v>0.12</v>
@@ -3585,30 +3496,30 @@
         <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="E30" s="1">
         <v>0.12</v>
@@ -3620,30 +3531,30 @@
         <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>128</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1">
         <v>9999999</v>
@@ -3655,30 +3566,30 @@
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1">
         <v>9999999</v>
@@ -3690,30 +3601,30 @@
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E33" s="1">
         <v>9999999</v>
@@ -3725,30 +3636,30 @@
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>131</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E34" s="1">
         <v>9999999</v>
@@ -3760,30 +3671,30 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E35" s="1">
         <v>9999999</v>
@@ -3795,30 +3706,30 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>133</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E36" s="1">
         <v>9999999</v>
@@ -3830,30 +3741,30 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>134</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E37" s="1">
         <v>0.1</v>
@@ -3865,30 +3776,30 @@
         <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>135</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="E38" s="1">
         <v>0.12</v>
@@ -3900,30 +3811,30 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="E39" s="1">
         <v>0.12</v>
@@ -3935,30 +3846,30 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>137</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="E40" s="1">
         <v>0.12</v>
@@ -3970,30 +3881,30 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="E41" s="1">
         <v>0.12</v>
@@ -4005,33 +3916,33 @@
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>139</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="E42" s="1">
-        <v>0.100000001490116</v>
+        <v>0.10000000149011599</v>
       </c>
       <c r="F42" s="1">
         <v>4</v>
@@ -4040,30 +3951,30 @@
         <v>3</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="E43" s="1">
         <v>0.12</v>
@@ -4075,30 +3986,30 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="E44" s="1">
         <v>0.12</v>
@@ -4110,30 +4021,30 @@
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="E45" s="1">
         <v>0.12</v>
@@ -4145,30 +4056,30 @@
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="E46" s="1">
         <v>0.12</v>
@@ -4180,30 +4091,30 @@
         <v>3</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>144</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="E47" s="1">
         <v>0.15</v>
@@ -4215,30 +4126,30 @@
         <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="E48" s="1">
         <v>0.119999997317791</v>
@@ -4250,30 +4161,30 @@
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="E49" s="1">
         <v>0.12</v>
@@ -4285,30 +4196,30 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>147</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="E50" s="1">
         <v>0.12</v>
@@ -4320,33 +4231,33 @@
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="E51" s="1">
-        <v>0.100000001490116</v>
+        <v>0.10000000149011599</v>
       </c>
       <c r="F51" s="1">
         <v>11</v>
@@ -4355,30 +4266,30 @@
         <v>4</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>149</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="E52" s="1">
         <v>0.119999997317791</v>
@@ -4390,30 +4301,30 @@
         <v>2</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>150</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="E53" s="1">
         <v>0.119999997317791</v>
@@ -4425,30 +4336,30 @@
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="E54" s="1">
         <v>0.119999997317791</v>
@@ -4460,30 +4371,30 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="E55" s="1">
         <v>0.119999997317791</v>
@@ -4495,33 +4406,33 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="E56" s="1">
-        <v>0.100000001490116</v>
+        <v>0.10000000149011599</v>
       </c>
       <c r="F56" s="1">
         <v>11</v>
@@ -4530,30 +4441,30 @@
         <v>4</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>154</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="E57" s="1">
         <v>0.119999997317791</v>
@@ -4565,30 +4476,30 @@
         <v>2</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>155</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="E58" s="1">
         <v>0.119999997317791</v>
@@ -4600,30 +4511,30 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>156</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="E59" s="1">
         <v>0.119999997317791</v>
@@ -4635,33 +4546,33 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>157</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="E60" s="1">
-        <v>0.100000001490116</v>
+        <v>0.10000000149011599</v>
       </c>
       <c r="F60" s="1">
         <v>9</v>
@@ -4670,33 +4581,33 @@
         <v>4</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>158</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="E61" s="1">
-        <v>0.100000001490116</v>
+        <v>0.10000000149011599</v>
       </c>
       <c r="F61" s="1">
         <v>10</v>
@@ -4705,30 +4616,30 @@
         <v>3</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>159</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="E62" s="1">
         <v>0.119999997317791</v>
@@ -4740,30 +4651,30 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>160</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="E63" s="1">
         <v>0.119999997317791</v>
@@ -4775,33 +4686,33 @@
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>161</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="E64" s="1">
-        <v>0.100000001490116</v>
+        <v>0.10000000149011599</v>
       </c>
       <c r="F64" s="1">
         <v>9</v>
@@ -4810,30 +4721,30 @@
         <v>4</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>162</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="E65" s="1">
         <v>0.119999997317791</v>
@@ -4845,1682 +4756,1694 @@
         <v>3</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="0">
-        <v>200</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="C6" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D6" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0">
-        <v>201</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="C7" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0">
-        <v>202</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0">
-        <v>203</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
         <v>317</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0">
-        <v>204</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0">
-        <v>205</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0">
-        <v>206</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="0" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="E4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="0">
-        <v>300</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="H5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>309</v>
+      </c>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>310</v>
+      </c>
+      <c r="B13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>311</v>
+      </c>
+      <c r="B14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>312</v>
+      </c>
+      <c r="B15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>313</v>
+      </c>
+      <c r="B16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>314</v>
+      </c>
+      <c r="B17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>317</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>318</v>
+      </c>
+      <c r="B21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" t="s">
+        <v>369</v>
+      </c>
+      <c r="E21" t="s">
+        <v>363</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" t="s">
+        <v>363</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>320</v>
+      </c>
+      <c r="B23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>321</v>
+      </c>
+      <c r="B24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" t="s">
+        <v>377</v>
+      </c>
+      <c r="E24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>325</v>
+      </c>
+      <c r="B28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>326</v>
+      </c>
+      <c r="B29" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>327</v>
+      </c>
+      <c r="B30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E30" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>328</v>
+      </c>
+      <c r="B31" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>330</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B33" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D33" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>331</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" t="s">
+        <v>399</v>
+      </c>
+      <c r="E34" t="s">
+        <v>363</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>332</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="B35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>333</v>
       </c>
-      <c r="F3" s="0">
+      <c r="B36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" t="s">
+        <v>373</v>
+      </c>
+      <c r="D36" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>334</v>
+      </c>
+      <c r="B37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" t="s">
+        <v>406</v>
+      </c>
+      <c r="E37" t="s">
+        <v>352</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>335</v>
+      </c>
+      <c r="B38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" t="s">
+        <v>408</v>
+      </c>
+      <c r="E38" t="s">
+        <v>363</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>336</v>
+      </c>
+      <c r="B39" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E39" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>20</v>
       </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="0">
-        <v>301</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F4" s="0">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0">
-        <v>10</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="H39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>337</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="0">
-        <v>302</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="B40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C40" t="s">
+        <v>373</v>
+      </c>
+      <c r="D40" t="s">
+        <v>413</v>
+      </c>
+      <c r="E40" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>338</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="B41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D41" t="s">
+        <v>415</v>
+      </c>
+      <c r="E41" t="s">
+        <v>352</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42">
         <v>339</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F5" s="0">
-        <v>20</v>
-      </c>
-      <c r="G5" s="0">
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="0">
-        <v>303</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F6" s="0">
-        <v>20</v>
-      </c>
-      <c r="G6" s="0">
-        <v>10</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="0">
-        <v>304</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F7" s="0">
-        <v>20</v>
-      </c>
-      <c r="G7" s="0">
-        <v>10</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="0">
-        <v>305</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="0">
-        <v>40</v>
-      </c>
-      <c r="G8" s="0">
-        <v>20</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="0">
-        <v>306</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F9" s="0">
-        <v>40</v>
-      </c>
-      <c r="G9" s="0">
-        <v>20</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="0">
-        <v>307</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" s="0">
-        <v>40</v>
-      </c>
-      <c r="G10" s="0">
-        <v>20</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="0">
-        <v>308</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F11" s="0">
-        <v>40</v>
-      </c>
-      <c r="G11" s="0">
-        <v>20</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="0">
-        <v>309</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F12" s="0">
-        <v>40</v>
-      </c>
-      <c r="G12" s="0">
-        <v>20</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="0">
-        <v>310</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F13" s="0">
-        <v>70</v>
-      </c>
-      <c r="G13" s="0">
-        <v>30</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="0">
-        <v>311</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F14" s="0">
-        <v>70</v>
-      </c>
-      <c r="G14" s="0">
-        <v>30</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="0">
-        <v>312</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="B42" t="s">
+        <v>416</v>
+      </c>
+      <c r="C42" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" t="s">
+        <v>417</v>
+      </c>
+      <c r="E42" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F15" s="0">
-        <v>70</v>
-      </c>
-      <c r="G15" s="0">
-        <v>30</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="0">
-        <v>313</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F16" s="0">
-        <v>70</v>
-      </c>
-      <c r="G16" s="0">
-        <v>30</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="0">
-        <v>314</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F17" s="0">
-        <v>70</v>
-      </c>
-      <c r="G17" s="0">
-        <v>30</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="0">
-        <v>315</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F18" s="0">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>100</v>
       </c>
-      <c r="G18" s="0">
-        <v>40</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="0">
-        <v>316</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F19" s="0">
-        <v>100</v>
-      </c>
-      <c r="G19" s="0">
-        <v>40</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="0">
-        <v>317</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F20" s="0">
-        <v>100</v>
-      </c>
-      <c r="G20" s="0">
-        <v>40</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="0">
-        <v>318</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F21" s="0">
-        <v>100</v>
-      </c>
-      <c r="G21" s="0">
-        <v>40</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="0">
-        <v>319</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F22" s="0">
-        <v>100</v>
-      </c>
-      <c r="G22" s="0">
-        <v>40</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="0">
-        <v>320</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0</v>
-      </c>
-      <c r="G23" s="0">
-        <v>20</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="0">
-        <v>321</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0">
-        <v>45</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="0">
-        <v>322</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0</v>
-      </c>
-      <c r="G25" s="0">
-        <v>70</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="0">
-        <v>323</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F26" s="0">
-        <v>0</v>
-      </c>
-      <c r="G26" s="0">
-        <v>100</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="0">
-        <v>324</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F27" s="0">
-        <v>0</v>
-      </c>
-      <c r="G27" s="0">
-        <v>20</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="0">
-        <v>325</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0</v>
-      </c>
-      <c r="G28" s="0">
-        <v>45</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="0">
-        <v>326</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0</v>
-      </c>
-      <c r="G29" s="0">
-        <v>70</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="0">
-        <v>327</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0">
-        <v>100</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="0">
-        <v>328</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0</v>
-      </c>
-      <c r="G31" s="0">
-        <v>20</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="0">
-        <v>329</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0</v>
-      </c>
-      <c r="G32" s="0">
-        <v>45</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="0">
-        <v>330</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F33" s="0">
-        <v>0</v>
-      </c>
-      <c r="G33" s="0">
-        <v>70</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="0">
-        <v>331</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F34" s="0">
-        <v>0</v>
-      </c>
-      <c r="G34" s="0">
-        <v>100</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="0">
-        <v>332</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F35" s="0">
-        <v>0</v>
-      </c>
-      <c r="G35" s="0">
-        <v>20</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="0">
-        <v>333</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="H42" t="s">
         <v>411</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F36" s="0">
-        <v>0</v>
-      </c>
-      <c r="G36" s="0">
-        <v>45</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="0">
-        <v>334</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F37" s="0">
-        <v>0</v>
-      </c>
-      <c r="G37" s="0">
-        <v>70</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="0">
-        <v>335</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F38" s="0">
-        <v>0</v>
-      </c>
-      <c r="G38" s="0">
-        <v>100</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="0">
-        <v>336</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F39" s="0">
-        <v>0</v>
-      </c>
-      <c r="G39" s="0">
-        <v>20</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="0">
-        <v>337</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F40" s="0">
-        <v>0</v>
-      </c>
-      <c r="G40" s="0">
-        <v>45</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="0">
-        <v>338</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F41" s="0">
-        <v>0</v>
-      </c>
-      <c r="G41" s="0">
-        <v>70</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="0">
-        <v>339</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F42" s="0">
-        <v>0</v>
-      </c>
-      <c r="G42" s="0">
-        <v>100</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="0">
-        <v>400</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>1.5</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="0" t="s">
+      <c r="C1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="0">
+      <c r="I2" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>500</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3">
         <v>204</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="E3" s="0">
+      <c r="D3" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="0">
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>501</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4">
         <v>205</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="E4" s="0">
+      <c r="D4" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E4">
         <v>150</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="0">
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>502</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5">
         <v>206</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="E5" s="0">
+      <c r="D5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E5">
         <v>80</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>600</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>601</v>
+      </c>
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>602</v>
+      </c>
+      <c r="B5" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C5" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" t="s">
         <v>447</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>603</v>
+      </c>
+      <c r="B6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" t="s">
         <v>448</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E6" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="0">
-        <v>600</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>604</v>
+      </c>
+      <c r="B7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E7" t="s">
         <v>451</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="0">
-        <v>601</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="F4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="0">
-        <v>602</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="0">
-        <v>603</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="F6" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="0">
-        <v>604</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1364CC96-4046-4375-9679-1AA0935EF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D41B89B-E7EF-4468-A3FF-C1C8E9C7CC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3218" yWindow="10800" windowWidth="19186" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3218" yWindow="10800" windowWidth="19186" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -2475,11 +2475,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3773,7 +3773,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>17</v>
@@ -3913,7 +3913,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>188</v>
@@ -4088,7 +4088,7 @@
         <v>8</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>212</v>
@@ -4263,7 +4263,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>233</v>
@@ -4438,7 +4438,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>256</v>
@@ -6133,8 +6133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C5BB81-036E-4011-8442-EC8DB0EED887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3218" yWindow="10800" windowWidth="19186" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,13 @@
     <sheet name="500" sheetId="5" r:id="rId5"/>
     <sheet name="600" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>ID</t>
   </si>
@@ -1020,6 +1015,36 @@
     <t>211.0, 0.0</t>
   </si>
   <si>
+    <t>StageDirection</t>
+  </si>
+  <si>
+    <t>texture\UI\direction.bmp</t>
+  </si>
+  <si>
+    <t>ui_direction</t>
+  </si>
+  <si>
+    <t>44.0, 39.0</t>
+  </si>
+  <si>
+    <t>44.0, 0.0</t>
+  </si>
+  <si>
+    <t>StageIcon</t>
+  </si>
+  <si>
+    <t>texture\UI\stage_icons.bmp</t>
+  </si>
+  <si>
+    <t>ui_stage</t>
+  </si>
+  <si>
+    <t>64.0, 64.0</t>
+  </si>
+  <si>
+    <t>64.0, 0.0</t>
+  </si>
+  <si>
     <t>AnimationList</t>
   </si>
   <si>
@@ -1075,6 +1100,21 @@
   </si>
   <si>
     <t>155, 156, 157, 158, 159, 160, 161, 162</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Stages</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
   <si>
     <t>Grade</t>
@@ -1491,84 +1531,684 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="22">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <u/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1856,23 +2496,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.12500000" defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="10.25500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,2261 +2546,2334 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="0">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="0">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.12</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0.12</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="0">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="0">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0.12</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="0">
         <v>105</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>9999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:11">
+      <c r="A9" s="0">
         <v>106</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>9999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:11">
+      <c r="A10" s="0">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.12</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="0">
         <v>108</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0.12</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="12" spans="1:11">
+      <c r="A12" s="0">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0.12</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>6</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:11">
+      <c r="A13" s="0">
         <v>110</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>0.12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>6</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:11">
+      <c r="A14" s="0">
         <v>111</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>0.12</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>5</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:11">
+      <c r="A15" s="0">
         <v>112</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>0.12</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="16" spans="1:11">
+      <c r="A16" s="0">
         <v>113</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>0.12</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17">
+    <row r="17" spans="1:11">
+      <c r="A17" s="0">
         <v>114</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>0.12</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="18" spans="1:11">
+      <c r="A18" s="0">
         <v>115</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>0.12</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>6</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:11">
+      <c r="A19" s="0">
         <v>116</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>0.12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:11">
+      <c r="A20" s="0">
         <v>117</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>0.1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="21" spans="1:11">
+      <c r="A21" s="0">
         <v>118</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>0.12</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>5</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="22" spans="1:11">
+      <c r="A22" s="0">
         <v>119</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>9999999</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="23" spans="1:11">
+      <c r="A23" s="0">
         <v>120</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>9999999</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24">
+    <row r="24" spans="1:11">
+      <c r="A24" s="0">
         <v>121</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>0.12</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>5</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="I24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="25" spans="1:11">
+      <c r="A25" s="0">
         <v>122</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>0.12</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>5</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:11">
+      <c r="A26" s="0">
         <v>123</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>0.12</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>5</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="0" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27">
+    <row r="27" spans="1:11">
+      <c r="A27" s="0">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>0.12</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>6</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="0" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:11">
+      <c r="A28" s="0">
         <v>125</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>0.12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="I28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="29" spans="1:11">
+      <c r="A29" s="0">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>0.12</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>6</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="I29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="30" spans="1:11">
+      <c r="A30" s="0">
         <v>127</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>0.12</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>5</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="I30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31">
+    <row r="31" spans="1:11">
+      <c r="A31" s="0">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>9999999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>9</v>
       </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32">
+    <row r="32" spans="1:11">
+      <c r="A32" s="0">
         <v>129</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>9999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>3</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="I32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="33" spans="1:11">
+      <c r="A33" s="0">
         <v>130</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>9999999</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>4</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34">
+    <row r="34" spans="1:11">
+      <c r="A34" s="0">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>9999999</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>4</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="35" spans="1:11">
+      <c r="A35" s="0">
         <v>132</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>9999999</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>4</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36">
+    <row r="36" spans="1:11">
+      <c r="A36" s="0">
         <v>133</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>9999999</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>3</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37">
+    <row r="37" spans="1:11">
+      <c r="A37" s="0">
         <v>134</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>0.1</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>15</v>
       </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38">
+    <row r="38" spans="1:11">
+      <c r="A38" s="0">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>0.12</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>6</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="I38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="I38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39">
+    <row r="39" spans="1:11">
+      <c r="A39" s="0">
         <v>136</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>6</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="I39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="I39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40">
+    <row r="40" spans="1:11">
+      <c r="A40" s="0">
         <v>137</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>4</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="I40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="0" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41">
+    <row r="41" spans="1:11">
+      <c r="A41" s="0">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>4</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>8</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="I41" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="0" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42">
+    <row r="42" spans="1:11">
+      <c r="A42" s="0">
         <v>139</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E42">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F42" s="0">
         <v>3</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>4</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="I42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="I42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="0" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43">
+    <row r="43" spans="1:11">
+      <c r="A43" s="0">
         <v>140</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>0.12</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="0">
         <v>6</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="I43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="I43" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44">
+    <row r="44" spans="1:11">
+      <c r="A44" s="0">
         <v>141</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>0.12</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>6</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="0" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45">
+    <row r="45" spans="1:11">
+      <c r="A45" s="0">
         <v>142</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>0.12</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>4</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="I45" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="I45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="0" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46">
+    <row r="46" spans="1:11">
+      <c r="A46" s="0">
         <v>143</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>0.12</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>4</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="0">
         <v>8</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="I46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="I46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47">
+    <row r="47" spans="1:11">
+      <c r="A47" s="0">
         <v>144</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>0.15</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>3</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="0">
         <v>2</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="I47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48">
+    <row r="48" spans="1:11">
+      <c r="A48" s="0">
         <v>145</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="0">
         <v>6</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="I48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49">
+    <row r="49" spans="1:11">
+      <c r="A49" s="0">
         <v>146</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="0">
         <v>6</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="I49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="I49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50">
+    <row r="50" spans="1:11">
+      <c r="A50" s="0">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="0">
         <v>4</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="I50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="I50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="0" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51">
+    <row r="51" spans="1:11">
+      <c r="A51" s="0">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E51">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F51" s="0">
         <v>5</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="0">
         <v>11</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="I51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="I51" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="0" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52">
+    <row r="52" spans="1:11">
+      <c r="A52" s="0">
         <v>149</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>2</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="0">
         <v>6</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="I52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="I52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53">
+    <row r="53" spans="1:11">
+      <c r="A53" s="0">
         <v>150</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="0">
         <v>6</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="I53" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="0" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54">
+    <row r="54" spans="1:11">
+      <c r="A54" s="0">
         <v>151</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="0">
         <v>6</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="I54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="I54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55">
+    <row r="55" spans="1:11">
+      <c r="A55" s="0">
         <v>152</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="0">
         <v>4</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="I55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="I55" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56">
+    <row r="56" spans="1:11">
+      <c r="A56" s="0">
         <v>153</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E56">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F56" s="0">
         <v>5</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="0">
         <v>11</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="I56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="I56" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="0" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57">
+    <row r="57" spans="1:11">
+      <c r="A57" s="0">
         <v>154</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0">
         <v>2</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="0">
         <v>6</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="I57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="I57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58">
+    <row r="58" spans="1:11">
+      <c r="A58" s="0">
         <v>155</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="0">
         <v>6</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="I58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I58" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59">
+    <row r="59" spans="1:11">
+      <c r="A59" s="0">
         <v>156</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="0">
         <v>4</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="I59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="I59" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60">
+    <row r="60" spans="1:11">
+      <c r="A60" s="0">
         <v>157</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E60">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F60" s="0">
         <v>4</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="0">
         <v>9</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="I60" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="I60" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61">
+    <row r="61" spans="1:11">
+      <c r="A61" s="0">
         <v>158</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E61">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F61" s="0">
         <v>3</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="0">
         <v>10</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="I61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="0" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62">
+    <row r="62" spans="1:11">
+      <c r="A62" s="0">
         <v>159</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="0">
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="0">
         <v>6</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="I62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="I62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63">
+    <row r="63" spans="1:11">
+      <c r="A63" s="0">
         <v>160</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="0">
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="0">
         <v>4</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="I63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="I63" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="0" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64">
+    <row r="64" spans="1:11">
+      <c r="A64" s="0">
         <v>161</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E64">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F64">
+      <c r="E64" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F64" s="0">
         <v>4</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="0">
         <v>9</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="I64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="I64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65">
+    <row r="65" spans="1:11">
+      <c r="A65" s="0">
         <v>162</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0">
         <v>3</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="0">
         <v>10</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="I65" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="I65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="0" t="s">
         <v>330</v>
       </c>
     </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="0">
+        <v>163</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E66" s="0">
+        <v>9999999</v>
+      </c>
+      <c r="F66" s="0">
+        <v>0</v>
+      </c>
+      <c r="G66" s="0">
+        <v>6</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="0">
+        <v>164</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E67" s="0">
+        <v>9999999</v>
+      </c>
+      <c r="F67" s="0">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0">
+        <v>14</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4172,136 +4884,167 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="D2" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="B3" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0">
         <v>201</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="C4" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="0">
         <v>202</v>
       </c>
-      <c r="B5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="D5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="D5" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="0">
         <v>203</v>
       </c>
-      <c r="B6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="B6" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="0">
         <v>204</v>
       </c>
-      <c r="B7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="B7" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0">
         <v>205</v>
       </c>
-      <c r="B8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="B8" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="0">
         <v>206</v>
       </c>
-      <c r="B9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" t="s">
-        <v>349</v>
+      <c r="B9" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="0">
+        <v>207</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="0">
+        <v>208</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4315,1099 +5058,1102 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="0">
         <v>300</v>
       </c>
-      <c r="B3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="0">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="H3" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="0">
         <v>301</v>
       </c>
-      <c r="B4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="0">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="H4" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="0">
         <v>302</v>
       </c>
-      <c r="B5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F5" s="0">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="H5" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="0">
         <v>303</v>
       </c>
-      <c r="B6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="0">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="H6" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="0">
         <v>304</v>
       </c>
-      <c r="B7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" t="s">
-        <v>369</v>
-      </c>
-      <c r="E7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="0">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="0">
+        <v>305</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>305</v>
-      </c>
-      <c r="B8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="0">
+        <v>40</v>
+      </c>
+      <c r="G8" s="0">
+        <v>20</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="0">
+        <v>306</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9" s="0">
+        <v>40</v>
+      </c>
+      <c r="G9" s="0">
+        <v>20</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="0">
+        <v>307</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="0">
+        <v>40</v>
+      </c>
+      <c r="G10" s="0">
+        <v>20</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="0">
+        <v>308</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="0">
+        <v>40</v>
+      </c>
+      <c r="G11" s="0">
+        <v>20</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="0">
+        <v>309</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="0">
+        <v>40</v>
+      </c>
+      <c r="G12" s="0">
+        <v>20</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="0">
+        <v>310</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="0">
+        <v>70</v>
+      </c>
+      <c r="G13" s="0">
+        <v>30</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="0">
+        <v>311</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="0">
+        <v>70</v>
+      </c>
+      <c r="G14" s="0">
+        <v>30</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="0">
+        <v>312</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F15" s="0">
+        <v>70</v>
+      </c>
+      <c r="G15" s="0">
+        <v>30</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="0">
+        <v>313</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="0">
+        <v>70</v>
+      </c>
+      <c r="G16" s="0">
+        <v>30</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="0">
+        <v>314</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="0">
+        <v>70</v>
+      </c>
+      <c r="G17" s="0">
+        <v>30</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="0">
+        <v>315</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="0">
+        <v>100</v>
+      </c>
+      <c r="G18" s="0">
+        <v>40</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="0">
+        <v>316</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="0">
+        <v>100</v>
+      </c>
+      <c r="G19" s="0">
+        <v>40</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="0">
+        <v>317</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20" s="0">
+        <v>100</v>
+      </c>
+      <c r="G20" s="0">
+        <v>40</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="0">
+        <v>318</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F21" s="0">
+        <v>100</v>
+      </c>
+      <c r="G21" s="0">
+        <v>40</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="0">
+        <v>319</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" s="0">
+        <v>100</v>
+      </c>
+      <c r="G22" s="0">
+        <v>40</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="0">
+        <v>320</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="E8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-      <c r="G8">
+      <c r="F23" s="0">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>306</v>
-      </c>
-      <c r="B9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E9" t="s">
-        <v>373</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="G9">
+      <c r="H23" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="0">
+        <v>321</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0">
+        <v>45</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="0">
+        <v>322</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0">
+        <v>70</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="0">
+        <v>323</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0">
+        <v>100</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="0">
+        <v>324</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>307</v>
-      </c>
-      <c r="B10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
-      <c r="G10">
+      <c r="H27" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="0">
+        <v>325</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0">
+        <v>45</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="0">
+        <v>326</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0">
+        <v>70</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="0">
+        <v>327</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0">
+        <v>100</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="0">
+        <v>328</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>308</v>
-      </c>
-      <c r="B11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" t="s">
-        <v>379</v>
-      </c>
-      <c r="E11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11">
+      <c r="H31" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="0">
+        <v>329</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0">
+        <v>45</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="0">
+        <v>330</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0">
+        <v>70</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="0">
+        <v>331</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0">
+        <v>100</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="0">
+        <v>332</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>309</v>
-      </c>
-      <c r="B12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" t="s">
-        <v>381</v>
-      </c>
-      <c r="E12" t="s">
-        <v>373</v>
-      </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="G12">
+      <c r="H35" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="0">
+        <v>333</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0">
+        <v>45</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="0">
+        <v>334</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0">
+        <v>70</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="0">
+        <v>335</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0">
+        <v>100</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="0">
+        <v>336</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>310</v>
-      </c>
-      <c r="B13" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D13" t="s">
-        <v>383</v>
-      </c>
-      <c r="E13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F13">
+      <c r="H39" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="0">
+        <v>337</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0">
+        <v>45</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="0">
+        <v>338</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0">
         <v>70</v>
       </c>
-      <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>311</v>
-      </c>
-      <c r="B14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D14" t="s">
-        <v>386</v>
-      </c>
-      <c r="E14" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14">
-        <v>70</v>
-      </c>
-      <c r="G14">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>312</v>
-      </c>
-      <c r="B15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E15" t="s">
-        <v>384</v>
-      </c>
-      <c r="F15">
-        <v>70</v>
-      </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>313</v>
-      </c>
-      <c r="B16" t="s">
-        <v>389</v>
-      </c>
-      <c r="C16" t="s">
-        <v>355</v>
-      </c>
-      <c r="D16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E16" t="s">
-        <v>384</v>
-      </c>
-      <c r="F16">
-        <v>70</v>
-      </c>
-      <c r="G16">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>314</v>
-      </c>
-      <c r="B17" t="s">
-        <v>391</v>
-      </c>
-      <c r="C17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" t="s">
-        <v>392</v>
-      </c>
-      <c r="E17" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>315</v>
-      </c>
-      <c r="B18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" t="s">
-        <v>355</v>
-      </c>
-      <c r="D18" t="s">
-        <v>394</v>
-      </c>
-      <c r="E18" t="s">
-        <v>395</v>
-      </c>
-      <c r="F18">
+      <c r="H41" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="0">
+        <v>339</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0">
         <v>100</v>
       </c>
-      <c r="G18">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>316</v>
-      </c>
-      <c r="B19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" t="s">
-        <v>397</v>
-      </c>
-      <c r="E19" t="s">
-        <v>395</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>317</v>
-      </c>
-      <c r="B20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" t="s">
-        <v>399</v>
-      </c>
-      <c r="E20" t="s">
-        <v>395</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>318</v>
-      </c>
-      <c r="B21" t="s">
-        <v>400</v>
-      </c>
-      <c r="C21" t="s">
-        <v>355</v>
-      </c>
-      <c r="D21" t="s">
-        <v>401</v>
-      </c>
-      <c r="E21" t="s">
-        <v>395</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>319</v>
-      </c>
-      <c r="B22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C22" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" t="s">
-        <v>403</v>
-      </c>
-      <c r="E22" t="s">
-        <v>395</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-      <c r="G22">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>320</v>
-      </c>
-      <c r="B23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C23" t="s">
-        <v>405</v>
-      </c>
-      <c r="D23" t="s">
-        <v>406</v>
-      </c>
-      <c r="E23" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>321</v>
-      </c>
-      <c r="B24" t="s">
-        <v>408</v>
-      </c>
-      <c r="C24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D24" t="s">
-        <v>409</v>
-      </c>
-      <c r="E24" t="s">
-        <v>373</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>322</v>
-      </c>
-      <c r="B25" t="s">
-        <v>410</v>
-      </c>
-      <c r="C25" t="s">
-        <v>405</v>
-      </c>
-      <c r="D25" t="s">
-        <v>411</v>
-      </c>
-      <c r="E25" t="s">
-        <v>384</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>70</v>
-      </c>
-      <c r="H25" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>323</v>
-      </c>
-      <c r="B26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C26" t="s">
-        <v>405</v>
-      </c>
-      <c r="D26" t="s">
-        <v>413</v>
-      </c>
-      <c r="E26" t="s">
-        <v>395</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>324</v>
-      </c>
-      <c r="B27" t="s">
-        <v>414</v>
-      </c>
-      <c r="C27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D27" t="s">
-        <v>415</v>
-      </c>
-      <c r="E27" t="s">
-        <v>357</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>325</v>
-      </c>
-      <c r="B28" t="s">
-        <v>417</v>
-      </c>
-      <c r="C28" t="s">
-        <v>405</v>
-      </c>
-      <c r="D28" t="s">
-        <v>418</v>
-      </c>
-      <c r="E28" t="s">
-        <v>373</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>326</v>
-      </c>
-      <c r="B29" t="s">
-        <v>419</v>
-      </c>
-      <c r="C29" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" t="s">
-        <v>420</v>
-      </c>
-      <c r="E29" t="s">
-        <v>384</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>70</v>
-      </c>
-      <c r="H29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>327</v>
-      </c>
-      <c r="B30" t="s">
-        <v>421</v>
-      </c>
-      <c r="C30" t="s">
-        <v>405</v>
-      </c>
-      <c r="D30" t="s">
-        <v>422</v>
-      </c>
-      <c r="E30" t="s">
-        <v>395</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="H30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>328</v>
-      </c>
-      <c r="B31" t="s">
-        <v>423</v>
-      </c>
-      <c r="C31" t="s">
-        <v>405</v>
-      </c>
-      <c r="D31" t="s">
-        <v>424</v>
-      </c>
-      <c r="E31" t="s">
-        <v>357</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>329</v>
-      </c>
-      <c r="B32" t="s">
-        <v>426</v>
-      </c>
-      <c r="C32" t="s">
-        <v>405</v>
-      </c>
-      <c r="D32" t="s">
-        <v>427</v>
-      </c>
-      <c r="E32" t="s">
-        <v>373</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>330</v>
-      </c>
-      <c r="B33" t="s">
-        <v>428</v>
-      </c>
-      <c r="C33" t="s">
-        <v>405</v>
-      </c>
-      <c r="D33" t="s">
-        <v>429</v>
-      </c>
-      <c r="E33" t="s">
-        <v>384</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>70</v>
-      </c>
-      <c r="H33" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>331</v>
-      </c>
-      <c r="B34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C34" t="s">
-        <v>405</v>
-      </c>
-      <c r="D34" t="s">
-        <v>431</v>
-      </c>
-      <c r="E34" t="s">
-        <v>395</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>332</v>
-      </c>
-      <c r="B35" t="s">
-        <v>432</v>
-      </c>
-      <c r="C35" t="s">
-        <v>405</v>
-      </c>
-      <c r="D35" t="s">
-        <v>433</v>
-      </c>
-      <c r="E35" t="s">
-        <v>357</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>333</v>
-      </c>
-      <c r="B36" t="s">
-        <v>435</v>
-      </c>
-      <c r="C36" t="s">
-        <v>405</v>
-      </c>
-      <c r="D36" t="s">
-        <v>436</v>
-      </c>
-      <c r="E36" t="s">
-        <v>373</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>334</v>
-      </c>
-      <c r="B37" t="s">
-        <v>437</v>
-      </c>
-      <c r="C37" t="s">
-        <v>405</v>
-      </c>
-      <c r="D37" t="s">
-        <v>438</v>
-      </c>
-      <c r="E37" t="s">
-        <v>384</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>70</v>
-      </c>
-      <c r="H37" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>335</v>
-      </c>
-      <c r="B38" t="s">
-        <v>439</v>
-      </c>
-      <c r="C38" t="s">
-        <v>405</v>
-      </c>
-      <c r="D38" t="s">
-        <v>440</v>
-      </c>
-      <c r="E38" t="s">
-        <v>395</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>336</v>
-      </c>
-      <c r="B39" t="s">
-        <v>441</v>
-      </c>
-      <c r="C39" t="s">
-        <v>405</v>
-      </c>
-      <c r="D39" t="s">
-        <v>442</v>
-      </c>
-      <c r="E39" t="s">
-        <v>357</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>337</v>
-      </c>
-      <c r="B40" t="s">
-        <v>444</v>
-      </c>
-      <c r="C40" t="s">
-        <v>405</v>
-      </c>
-      <c r="D40" t="s">
-        <v>445</v>
-      </c>
-      <c r="E40" t="s">
-        <v>373</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>338</v>
-      </c>
-      <c r="B41" t="s">
-        <v>446</v>
-      </c>
-      <c r="C41" t="s">
-        <v>405</v>
-      </c>
-      <c r="D41" t="s">
-        <v>447</v>
-      </c>
-      <c r="E41" t="s">
-        <v>384</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>70</v>
-      </c>
-      <c r="H41" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>339</v>
-      </c>
-      <c r="B42" t="s">
-        <v>448</v>
-      </c>
-      <c r="C42" t="s">
-        <v>405</v>
-      </c>
-      <c r="D42" t="s">
-        <v>449</v>
-      </c>
-      <c r="E42" t="s">
-        <v>395</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-      <c r="H42" t="s">
-        <v>443</v>
+      <c r="H42" s="0" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5418,97 +6164,100 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="0">
         <v>400</v>
       </c>
-      <c r="B3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F3" t="s">
-        <v>458</v>
-      </c>
-      <c r="G3">
+      <c r="B3" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" s="0">
         <v>1.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5516,299 +6265,303 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="0">
         <v>500</v>
       </c>
-      <c r="B3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="0">
         <v>204</v>
       </c>
-      <c r="D3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="0">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:9">
+      <c r="A4" s="0">
         <v>501</v>
       </c>
-      <c r="B4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="0">
         <v>205</v>
       </c>
-      <c r="D4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" s="0">
         <v>150</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:9">
+      <c r="A5" s="0">
         <v>502</v>
       </c>
-      <c r="B5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="0">
         <v>206</v>
       </c>
-      <c r="D5" t="s">
-        <v>468</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" s="0">
         <v>80</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="0">
         <v>600</v>
       </c>
-      <c r="B3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="0">
         <v>601</v>
       </c>
-      <c r="B4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E4" t="s">
-        <v>478</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="0">
         <v>602</v>
       </c>
-      <c r="B5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C5" t="s">
-        <v>480</v>
-      </c>
-      <c r="D5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="0">
         <v>603</v>
       </c>
-      <c r="B6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" t="s">
-        <v>482</v>
-      </c>
-      <c r="D6" t="s">
-        <v>483</v>
-      </c>
-      <c r="E6" t="s">
-        <v>484</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:6">
+      <c r="A7" s="0">
         <v>604</v>
       </c>
-      <c r="B7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C7" t="s">
-        <v>480</v>
-      </c>
-      <c r="D7" t="s">
-        <v>485</v>
-      </c>
-      <c r="E7" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" s="0">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,22 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="511">
   <si>
     <t>ID</t>
   </si>
@@ -1526,6 +1540,33 @@
   </si>
   <si>
     <t>snow</t>
+  </si>
+  <si>
+    <t>500, 502</t>
+  </si>
+  <si>
+    <t>2, 1, 1</t>
+  </si>
+  <si>
+    <t>3, 2</t>
+  </si>
+  <si>
+    <t>2 ,2</t>
+  </si>
+  <si>
+    <t>3, 3</t>
+  </si>
+  <si>
+    <t>2, 1, 2</t>
+  </si>
+  <si>
+    <t>155, 156, 157, 158, 159, 160, 161, 162, 163, 164</t>
+  </si>
+  <si>
+    <t>SpiritMove</t>
+  </si>
+  <si>
+    <t>SpiritMove2</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1574,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
@@ -1656,12 +1697,6 @@
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -1908,7 +1943,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1917,7 +1951,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1926,7 +1959,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1935,7 +1967,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1950,7 +1981,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1965,7 +1995,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1980,7 +2009,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1989,7 +2017,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2000,7 +2027,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -2079,10 +2105,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2091,10 +2117,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2103,10 +2129,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2115,10 +2141,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2127,10 +2153,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2139,16 +2165,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2497,13 +2523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
+      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.12500000" defaultRowHeight="15.000000"/>
@@ -4546,13 +4572,13 @@
         <v>156</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>300</v>
+        <v>509</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E59" s="0">
         <v>0.119999997317791</v>
@@ -4561,19 +4587,19 @@
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4581,34 +4607,34 @@
         <v>157</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="E60" s="0">
-        <v>0.100000001490116</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F60" s="0">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0">
         <v>4</v>
       </c>
-      <c r="G60" s="0">
-        <v>9</v>
-      </c>
       <c r="H60" s="0" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>19</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>273</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4616,34 +4642,34 @@
         <v>158</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E61" s="0">
         <v>0.100000001490116</v>
       </c>
       <c r="F61" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>19</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4651,34 +4677,34 @@
         <v>159</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E62" s="0">
-        <v>0.119999997317791</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F62" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>19</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4686,13 +4712,13 @@
         <v>160</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E63" s="0">
         <v>0.119999997317791</v>
@@ -4701,19 +4727,19 @@
         <v>0</v>
       </c>
       <c r="G63" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4721,34 +4747,34 @@
         <v>161</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>322</v>
+        <v>510</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="E64" s="0">
-        <v>0.100000001490116</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="F64" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>19</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4756,34 +4782,34 @@
         <v>162</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="E65" s="0">
         <v>0.119999997317791</v>
       </c>
       <c r="F65" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>19</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4791,34 +4817,34 @@
         <v>163</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="E66" s="0">
-        <v>9999999</v>
+        <v>0.100000001490116</v>
       </c>
       <c r="F66" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G66" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>335</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4826,33 +4852,103 @@
         <v>164</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0.119999997317791</v>
+      </c>
+      <c r="F67" s="0">
+        <v>3</v>
+      </c>
+      <c r="G67" s="0">
+        <v>10</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="0">
+        <v>165</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="0">
+        <v>9999999</v>
+      </c>
+      <c r="F68" s="0">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0">
+        <v>6</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="0">
+        <v>166</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C69" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D69" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E69" s="0">
         <v>9999999</v>
       </c>
-      <c r="F67" s="0">
+      <c r="F69" s="0">
         <v>0</v>
       </c>
-      <c r="G67" s="0">
+      <c r="G69" s="0">
         <v>14</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" s="0" t="s">
+      <c r="H69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="K67" s="0" t="s">
+      <c r="K69" s="0" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4860,6 +4956,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4868,7 +4965,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -4996,7 +5093,7 @@
         <v>354</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>359</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5009,8 +5106,8 @@
       <c r="C10" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>362</v>
+      <c r="D10" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5023,8 +5120,8 @@
       <c r="C11" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>364</v>
+      <c r="D11" s="0">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5044,7 +5141,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6148,12 +6245,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6251,13 +6348,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6384,7 +6481,7 @@
         <v>206</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E5" s="0">
         <v>80</v>
@@ -6411,15 +6508,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6504,7 +6601,7 @@
         <v>602</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>494</v>
+        <v>372</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>495</v>
@@ -6527,16 +6624,16 @@
         <v>372</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6547,15 +6644,135 @@
         <v>494</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="0">
+        <v>605</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="0">
+        <v>606</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F9" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="0">
+        <v>607</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="0">
+        <v>608</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D11" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="0">
+        <v>609</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="0">
+        <v>502</v>
+      </c>
+      <c r="D12" s="0">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="0">
+        <v>610</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" s="0">
         <v>500</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F7" s="0">
+      <c r="D13" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F13" s="0">
         <v>2</v>
       </c>
     </row>
@@ -6563,5 +6780,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{93425FD7-7DC4-464C-BA62-35614320929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D862C301-F74A-4707-AA00-1A219B230A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3315" yWindow="10800" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2479,7 +2479,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D862C301-F74A-4707-AA00-1A219B230A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1FF80466-3FEE-4C39-83D1-5E420B222C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3315" yWindow="10800" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3315" yWindow="10800" windowWidth="19185" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -1459,9 +1459,6 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Interval</t>
-  </si>
-  <si>
     <t>vector&lt;string&gt;</t>
   </si>
   <si>
@@ -1541,6 +1538,10 @@
   </si>
   <si>
     <t>SpiritMove2</t>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2475,7 +2476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4522,7 +4523,7 @@
         <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C59" t="s">
         <v>297</v>
@@ -4697,7 +4698,7 @@
         <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C64" t="s">
         <v>314</v>
@@ -5042,7 +5043,7 @@
         <v>354</v>
       </c>
       <c r="D9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -6295,8 +6296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6327,7 +6328,7 @@
         <v>476</v>
       </c>
       <c r="I1" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -6341,7 +6342,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -6370,7 +6371,7 @@
         <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -6385,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -6399,7 +6400,7 @@
         <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -6414,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -6428,7 +6429,7 @@
         <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E5">
         <v>80</v>
@@ -6443,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6468,19 +6469,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" t="s">
         <v>480</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>481</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>482</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>483</v>
-      </c>
-      <c r="F1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -6511,13 +6512,13 @@
         <v>369</v>
       </c>
       <c r="C3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" t="s">
         <v>485</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>486</v>
-      </c>
-      <c r="E3" t="s">
-        <v>487</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6531,13 +6532,13 @@
         <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E4" t="s">
         <v>488</v>
-      </c>
-      <c r="E4" t="s">
-        <v>489</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6551,13 +6552,13 @@
         <v>369</v>
       </c>
       <c r="C5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E5" t="s">
         <v>491</v>
-      </c>
-      <c r="D5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E5" t="s">
-        <v>492</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6571,13 +6572,13 @@
         <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6588,16 +6589,16 @@
         <v>604</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6608,16 +6609,16 @@
         <v>605</v>
       </c>
       <c r="B8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6631,13 +6632,13 @@
         <v>369</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -6651,13 +6652,13 @@
         <v>369</v>
       </c>
       <c r="C10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" t="s">
         <v>493</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>494</v>
-      </c>
-      <c r="E10" t="s">
-        <v>495</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -6671,13 +6672,13 @@
         <v>369</v>
       </c>
       <c r="C11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" t="s">
         <v>491</v>
-      </c>
-      <c r="D11" t="s">
-        <v>498</v>
-      </c>
-      <c r="E11" t="s">
-        <v>492</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -6688,7 +6689,7 @@
         <v>609</v>
       </c>
       <c r="B12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C12">
         <v>502</v>
@@ -6697,7 +6698,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -6708,7 +6709,7 @@
         <v>610</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -6717,7 +6718,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F13">
         <v>2</v>

--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.180.50690"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WinAPIProject\Output\bin\content\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1FF80466-3FEE-4C39-83D1-5E420B222C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3315" yWindow="10800" windowWidth="19185" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -20,13 +14,20 @@
     <sheet name="500" sheetId="5" r:id="rId5"/>
     <sheet name="600" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
   <si>
     <t>ID</t>
   </si>
@@ -1541,165 +1542,182 @@
   </si>
   <si>
     <t>Money</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_effect</t>
+  </si>
+  <si>
+    <t>texture\Effect\Hit\hit0</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>texture\Effect\hit_effect.png</t>
+  </si>
+  <si>
+    <t>effect_hit</t>
+  </si>
+  <si>
+    <t>0, 0</t>
+  </si>
+  <si>
+    <t>267, 213</t>
+  </si>
+  <si>
+    <t>267, 0</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>2,1,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="20">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="major"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1707,179 +1725,195 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1889,7 +1923,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1898,25 +1931,22 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1931,7 +1961,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1946,7 +1975,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1955,7 +1983,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1970,7 +1997,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1985,7 +2011,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1996,134 +2021,154 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2132,7 +2177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2161,10 +2206,14 @@
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="백분율" xfId="44" builtinId="5"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="쉼표" xfId="42" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="45" builtinId="6"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -2174,18 +2223,11 @@
     <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="통화" xfId="43" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="46" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="47" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2473,4260 +2515,4312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.09765625" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="10.296875" customWidth="1"/>
+    <col min="1" max="1" width="10.25500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="0">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="0">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.12</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0.12</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="0">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="0">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0.12</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="0">
         <v>105</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>9999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:11">
+      <c r="A9" s="0">
         <v>106</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>9999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:11">
+      <c r="A10" s="0">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.12</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="0">
         <v>108</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0.12</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="12" spans="1:11">
+      <c r="A12" s="0">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0.12</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>6</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:11">
+      <c r="A13" s="0">
         <v>110</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>0.12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>6</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:11">
+      <c r="A14" s="0">
         <v>111</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>0.12</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>5</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:11">
+      <c r="A15" s="0">
         <v>112</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>0.12</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="16" spans="1:11">
+      <c r="A16" s="0">
         <v>113</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>0.12</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17">
+    <row r="17" spans="1:11">
+      <c r="A17" s="0">
         <v>114</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>0.12</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="18" spans="1:11">
+      <c r="A18" s="0">
         <v>115</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>0.12</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>6</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:11">
+      <c r="A19" s="0">
         <v>116</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>0.12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:11">
+      <c r="A20" s="0">
         <v>117</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>0.1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="21" spans="1:11">
+      <c r="A21" s="0">
         <v>118</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>0.12</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>5</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="22" spans="1:11">
+      <c r="A22" s="0">
         <v>119</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>9999999</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="23" spans="1:11">
+      <c r="A23" s="0">
         <v>120</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>9999999</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24">
+    <row r="24" spans="1:11">
+      <c r="A24" s="0">
         <v>121</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>0.12</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>5</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="I24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="25" spans="1:11">
+      <c r="A25" s="0">
         <v>122</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>0.12</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>5</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:11">
+      <c r="A26" s="0">
         <v>123</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>0.12</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>5</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="0" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27">
+    <row r="27" spans="1:11">
+      <c r="A27" s="0">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>0.12</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>6</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="0" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:11">
+      <c r="A28" s="0">
         <v>125</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>0.12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="I28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="29" spans="1:11">
+      <c r="A29" s="0">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>0.12</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>6</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="I29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="30" spans="1:11">
+      <c r="A30" s="0">
         <v>127</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>0.12</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>5</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="I30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31">
+    <row r="31" spans="1:11">
+      <c r="A31" s="0">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>9999999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>9</v>
       </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32">
+    <row r="32" spans="1:11">
+      <c r="A32" s="0">
         <v>129</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>9999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>3</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="I32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="33" spans="1:11">
+      <c r="A33" s="0">
         <v>130</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>9999999</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>4</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34">
+    <row r="34" spans="1:11">
+      <c r="A34" s="0">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>9999999</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>4</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="35" spans="1:11">
+      <c r="A35" s="0">
         <v>132</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>9999999</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>4</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36">
+    <row r="36" spans="1:11">
+      <c r="A36" s="0">
         <v>133</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>9999999</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>3</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37">
+    <row r="37" spans="1:11">
+      <c r="A37" s="0">
         <v>134</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>0.1</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>15</v>
       </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38">
+    <row r="38" spans="1:11">
+      <c r="A38" s="0">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>0.12</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>6</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="I38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="I38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39">
+    <row r="39" spans="1:11">
+      <c r="A39" s="0">
         <v>136</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>6</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="I39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="I39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40">
+    <row r="40" spans="1:11">
+      <c r="A40" s="0">
         <v>137</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>4</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="I40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="0" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41">
+    <row r="41" spans="1:11">
+      <c r="A41" s="0">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>4</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>8</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="I41" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="0" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42">
+    <row r="42" spans="1:11">
+      <c r="A42" s="0">
         <v>139</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E42">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F42" s="0">
         <v>3</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>4</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="I42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="I42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="0" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43">
+    <row r="43" spans="1:11">
+      <c r="A43" s="0">
         <v>140</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>0.12</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="0">
         <v>6</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="I43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="I43" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44">
+    <row r="44" spans="1:11">
+      <c r="A44" s="0">
         <v>141</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>0.12</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>6</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="0" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45">
+    <row r="45" spans="1:11">
+      <c r="A45" s="0">
         <v>142</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>0.12</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>4</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="I45" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="I45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="0" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46">
+    <row r="46" spans="1:11">
+      <c r="A46" s="0">
         <v>143</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>0.12</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>4</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="0">
         <v>8</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="I46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="I46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47">
+    <row r="47" spans="1:11">
+      <c r="A47" s="0">
         <v>144</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>0.15</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>3</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="0">
         <v>2</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="I47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48">
+    <row r="48" spans="1:11">
+      <c r="A48" s="0">
         <v>145</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="0">
         <v>6</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="I48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49">
+    <row r="49" spans="1:11">
+      <c r="A49" s="0">
         <v>146</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="0">
         <v>6</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="I49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="I49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50">
+    <row r="50" spans="1:11">
+      <c r="A50" s="0">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="0">
         <v>4</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="I50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="I50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="0" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51">
+    <row r="51" spans="1:11">
+      <c r="A51" s="0">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E51">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F51" s="0">
         <v>5</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="0">
         <v>11</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="I51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="I51" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="0" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52">
+    <row r="52" spans="1:11">
+      <c r="A52" s="0">
         <v>149</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>2</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="0">
         <v>6</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="I52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="I52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53">
+    <row r="53" spans="1:11">
+      <c r="A53" s="0">
         <v>150</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="0">
         <v>6</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="I53" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="0" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54">
+    <row r="54" spans="1:11">
+      <c r="A54" s="0">
         <v>151</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="0">
         <v>6</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="I54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="I54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55">
+    <row r="55" spans="1:11">
+      <c r="A55" s="0">
         <v>152</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="0">
         <v>4</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="I55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="I55" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56">
+    <row r="56" spans="1:11">
+      <c r="A56" s="0">
         <v>153</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E56">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F56" s="0">
         <v>5</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="0">
         <v>11</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="I56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="I56" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="0" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57">
+    <row r="57" spans="1:11">
+      <c r="A57" s="0">
         <v>154</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0">
         <v>2</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="0">
         <v>6</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="I57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="I57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58">
+    <row r="58" spans="1:11">
+      <c r="A58" s="0">
         <v>155</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="0">
         <v>6</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="I58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I58" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59">
+    <row r="59" spans="1:11">
+      <c r="A59" s="0">
         <v>156</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="0">
         <v>6</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="I59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="I59" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60">
+    <row r="60" spans="1:11">
+      <c r="A60" s="0">
         <v>157</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="0">
         <v>0</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="0">
         <v>4</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="I60" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="I60" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61">
+    <row r="61" spans="1:11">
+      <c r="A61" s="0">
         <v>158</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E61">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F61" s="0">
         <v>4</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="0">
         <v>9</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="I61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="I61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62">
+    <row r="62" spans="1:11">
+      <c r="A62" s="0">
         <v>159</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E62">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F62">
+      <c r="E62" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F62" s="0">
         <v>3</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="0">
         <v>10</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="I62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="0" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63">
+    <row r="63" spans="1:11">
+      <c r="A63" s="0">
         <v>160</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="0">
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="0">
         <v>6</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="I63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="I63" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64">
+    <row r="64" spans="1:11">
+      <c r="A64" s="0">
         <v>161</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="0">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="0">
         <v>6</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="I64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="I64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65">
+    <row r="65" spans="1:11">
+      <c r="A65" s="0">
         <v>162</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0">
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="0">
         <v>4</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="I65" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="I65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="0" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66">
+    <row r="66" spans="1:11">
+      <c r="A66" s="0">
         <v>163</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E66">
-        <v>0.10000000149011599</v>
-      </c>
-      <c r="F66">
+      <c r="E66" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="F66" s="0">
         <v>4</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="0">
         <v>9</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="I66" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="I66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A67">
+    <row r="67" spans="1:11">
+      <c r="A67" s="0">
         <v>164</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0">
         <v>0.119999997317791</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="0">
         <v>3</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="0">
         <v>10</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="I67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="I67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="0" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68">
+    <row r="68" spans="1:11">
+      <c r="A68" s="0">
         <v>165</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0">
         <v>9999999</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="0">
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="0">
         <v>6</v>
       </c>
-      <c r="H68" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="H68" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="0" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A69">
+    <row r="69" spans="1:11">
+      <c r="A69" s="0">
         <v>166</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0">
         <v>9999999</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="0">
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="0">
         <v>14</v>
       </c>
-      <c r="H69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="H69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="0" t="s">
         <v>340</v>
       </c>
     </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="0">
+        <v>167</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="F70" s="0">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0">
+        <v>6</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="0">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:4">
+      <c r="A4" s="0">
         <v>201</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:4">
+      <c r="A5" s="0">
         <v>202</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:4">
+      <c r="A6" s="0">
         <v>203</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:4">
+      <c r="A7" s="0">
         <v>204</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:4">
+      <c r="A8" s="0">
         <v>205</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:4">
+      <c r="A9" s="0">
         <v>206</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:4">
+      <c r="A10" s="0">
         <v>207</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:4">
+      <c r="A11" s="0">
         <v>208</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>166</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="0">
+        <v>209</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="0">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="0">
         <v>300</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="0">
         <v>301</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" s="0">
         <v>302</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:8">
+      <c r="A6" s="0">
         <v>303</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:8">
+      <c r="A7" s="0">
         <v>304</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:8">
+      <c r="A8" s="0">
         <v>305</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>40</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:8">
+      <c r="A9" s="0">
         <v>306</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>40</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:8">
+      <c r="A10" s="0">
         <v>307</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>40</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="0" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:8">
+      <c r="A11" s="0">
         <v>308</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>40</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="12" spans="1:8">
+      <c r="A12" s="0">
         <v>309</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>40</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="0" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:8">
+      <c r="A13" s="0">
         <v>310</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>70</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>30</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="0" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:8">
+      <c r="A14" s="0">
         <v>311</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>70</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:8">
+      <c r="A15" s="0">
         <v>312</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>70</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>30</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="0" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="16" spans="1:8">
+      <c r="A16" s="0">
         <v>313</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>70</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>30</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
+    <row r="17" spans="1:8">
+      <c r="A17" s="0">
         <v>314</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>70</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>30</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="18" spans="1:8">
+      <c r="A18" s="0">
         <v>315</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>40</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="0" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:8">
+      <c r="A19" s="0">
         <v>316</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:8">
+      <c r="A20" s="0">
         <v>317</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>100</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>40</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="21" spans="1:8">
+      <c r="A21" s="0">
         <v>318</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>100</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>40</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="22" spans="1:8">
+      <c r="A22" s="0">
         <v>319</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>100</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>40</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="0" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="23" spans="1:8">
+      <c r="A23" s="0">
         <v>320</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
+    <row r="24" spans="1:8">
+      <c r="A24" s="0">
         <v>321</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>45</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="25" spans="1:8">
+      <c r="A25" s="0">
         <v>322</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>70</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:8">
+      <c r="A26" s="0">
         <v>323</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>100</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27">
+    <row r="27" spans="1:8">
+      <c r="A27" s="0">
         <v>324</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="0" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:8">
+      <c r="A28" s="0">
         <v>325</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>45</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="29" spans="1:8">
+      <c r="A29" s="0">
         <v>326</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>70</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="30" spans="1:8">
+      <c r="A30" s="0">
         <v>327</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>100</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31">
+    <row r="31" spans="1:8">
+      <c r="A31" s="0">
         <v>328</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>20</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32">
+    <row r="32" spans="1:8">
+      <c r="A32" s="0">
         <v>329</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>45</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="33" spans="1:8">
+      <c r="A33" s="0">
         <v>330</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>70</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34">
+    <row r="34" spans="1:8">
+      <c r="A34" s="0">
         <v>331</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>100</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="0" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="35" spans="1:8">
+      <c r="A35" s="0">
         <v>332</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>20</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36">
+    <row r="36" spans="1:8">
+      <c r="A36" s="0">
         <v>333</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>45</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37">
+    <row r="37" spans="1:8">
+      <c r="A37" s="0">
         <v>334</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>70</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="0" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38">
+    <row r="38" spans="1:8">
+      <c r="A38" s="0">
         <v>335</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39">
+    <row r="39" spans="1:8">
+      <c r="A39" s="0">
         <v>336</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>20</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="0" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40">
+    <row r="40" spans="1:8">
+      <c r="A40" s="0">
         <v>337</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>45</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41">
+    <row r="41" spans="1:8">
+      <c r="A41" s="0">
         <v>338</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>70</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="0" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42">
+    <row r="42" spans="1:8">
+      <c r="A42" s="0">
         <v>339</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>100</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="0" t="s">
         <v>455</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="0">
         <v>400</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>1.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="0">
         <v>500</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>204</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:9">
+      <c r="A4" s="0">
         <v>501</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>205</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>150</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:9">
+      <c r="A5" s="0">
         <v>502</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>206</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>80</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="0">
         <v>600</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="0">
         <v>601</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D4" t="s">
-        <v>487</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="0">
         <v>602</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="D5" t="s">
-        <v>487</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="0">
         <v>603</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="D6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:6">
+      <c r="A7" s="0">
         <v>604</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="0">
+        <v>605</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="0">
+        <v>606</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="0">
+        <v>607</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>605</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F10" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="0">
+        <v>608</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F11" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="0">
+        <v>609</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="C8" t="s">
-        <v>492</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C12" s="0">
+        <v>502</v>
+      </c>
+      <c r="D12" s="0">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="0">
+        <v>610</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="0">
         <v>500</v>
       </c>
-      <c r="E8" t="s">
-        <v>491</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>606</v>
-      </c>
-      <c r="B9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" t="s">
-        <v>499</v>
-      </c>
-      <c r="E9" t="s">
-        <v>488</v>
-      </c>
-      <c r="F9">
+      <c r="D13" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="F13" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>607</v>
-      </c>
-      <c r="B10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" t="s">
-        <v>492</v>
-      </c>
-      <c r="D10" t="s">
-        <v>493</v>
-      </c>
-      <c r="E10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>608</v>
-      </c>
-      <c r="B11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" t="s">
-        <v>490</v>
-      </c>
-      <c r="D11" t="s">
-        <v>497</v>
-      </c>
-      <c r="E11" t="s">
-        <v>491</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>609</v>
-      </c>
-      <c r="B12" t="s">
-        <v>489</v>
-      </c>
-      <c r="C12">
-        <v>502</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>495</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>610</v>
-      </c>
-      <c r="B13" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13">
-        <v>500</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>486</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Output/bin/content/data/DataBase.xlsx
+++ b/Output/bin/content/data/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t>ID</t>
   </si>
@@ -1581,6 +1581,9 @@
   </si>
   <si>
     <t>2,1,1</t>
+  </si>
+  <si>
+    <t>trace, heal</t>
   </si>
 </sst>
 </file>
@@ -6390,11 +6393,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="4" max="4" width="13.25500011" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="0" t="s">
@@ -6465,7 +6471,7 @@
         <v>204</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="E3" s="0">
         <v>100</v>
@@ -6552,7 +6558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
